--- a/W1D3 Amato Enzo.xlsx
+++ b/W1D3 Amato Enzo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info\Desktop\Corso Epicode\Modulo 2 Excel\M2-1-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93736233-5AEB-45EB-89C9-8B6BA6FE7567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A779C6-0F72-491D-ABDF-7A1360E09A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Assoluti_Iva!$A$4:$C$340</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LOGICA!$A$1:$D$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CONTA!$A$1:$B$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LOGICA!$A$1:$E$80</definedName>
     <definedName name="abitanti">CONTA!$B$2:$B$110</definedName>
     <definedName name="ACCES">Assoluti_Iva!$A$196:$C$230</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Assoluti_Iva!$A$4:$A$340</definedName>
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="209">
   <si>
     <t>Data</t>
   </si>
@@ -704,13 +705,17 @@
   <si>
     <t>MANUALI &lt; 1.000 K</t>
   </si>
+  <si>
+    <t>IVA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
@@ -718,7 +723,7 @@
     <numFmt numFmtId="168" formatCode="&quot;€&quot;\ #,##0.00"/>
     <numFmt numFmtId="169" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="170" formatCode="_-[$€]\ * #,##0.00_-;\-[$€]\ * #,##0.00_-;_-[$€]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="173" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -916,7 +921,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="38" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -929,8 +934,9 @@
     <xf numFmtId="169" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -958,16 +964,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="6" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -980,15 +976,32 @@
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="6" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="7" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="13">
     <cellStyle name="Comma [0]" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Currency [0]" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Euro" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Euro 2" xfId="10" xr:uid="{AABE2ED2-6E30-451E-AC5F-CB9F262C13E8}"/>
+    <cellStyle name="Migliaia" xfId="12" builtinId="3"/>
     <cellStyle name="Migliaia 2" xfId="9" xr:uid="{D537F2D8-156A-42A0-B293-31B6E89567B2}"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Normale 2" xfId="6" xr:uid="{3D179E92-2E47-43E0-9810-C609F7774ECE}"/>
@@ -998,29 +1011,7 @@
     <cellStyle name="Valuta 2" xfId="7" xr:uid="{207091F5-721C-455F-B370-D6B4AD03B231}"/>
     <cellStyle name="Valuta_gestione clienti(out)-1" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1324,7 +1315,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1332,38 +1323,44 @@
     <col min="1" max="1" width="41.21875" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.44140625" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.44140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="24.88671875" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="27" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.77734375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" s="39">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="E2" s="35">
+      <c r="E2" s="38">
         <f>AVERAGE(IMPONIBILE)</f>
         <v>511689.55223880598</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="35" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="38">
         <f>SUM(IMPONIBILE)</f>
         <v>171416000</v>
       </c>
@@ -1378,13 +1375,13 @@
       <c r="C4" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="29" t="s">
         <v>207</v>
       </c>
     </row>
@@ -1398,15 +1395,15 @@
       <c r="C5" s="9">
         <v>281000</v>
       </c>
-      <c r="D5" s="31" t="str">
+      <c r="D5" s="27" t="str">
         <f>IF(AND(B5="Abbigliamento",C5&gt;300000),"Trovato"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E5" s="32" t="str">
-        <f>IF(A5="HHB",C5*0.22," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F5" s="31" t="str">
+      <c r="E5" s="28" t="str">
+        <f>IF(A5="HHB",C5*$E$1," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F5" s="27" t="str">
         <f>IF(AND(B5="Manuali",C5&lt;1000000),"Vero"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -1421,15 +1418,15 @@
       <c r="C6" s="9">
         <v>323000</v>
       </c>
-      <c r="D6" s="31" t="str">
+      <c r="D6" s="27" t="str">
         <f t="shared" ref="D6:D69" si="0">IF(AND(B6="Abbigliamento",C6&gt;300000),"Trovato"," ")</f>
         <v>Trovato</v>
       </c>
-      <c r="E6" s="32" t="str">
-        <f t="shared" ref="E6:E69" si="1">IF(A6="HHB",C6*0.22," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F6" s="31" t="str">
+      <c r="E6" s="28" t="str">
+        <f t="shared" ref="E6:E69" si="1">IF(A6="HHB",C6*$E$1," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F6" s="27" t="str">
         <f t="shared" ref="F6:F69" si="2">IF(AND(B6="Manuali",C6&lt;1000000),"Vero"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -1444,15 +1441,15 @@
       <c r="C7" s="9">
         <v>344000</v>
       </c>
-      <c r="D7" s="31" t="str">
+      <c r="D7" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="28">
         <f t="shared" si="1"/>
         <v>75680</v>
       </c>
-      <c r="F7" s="31" t="str">
+      <c r="F7" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1467,15 +1464,15 @@
       <c r="C8" s="9">
         <v>361000</v>
       </c>
-      <c r="D8" s="31" t="str">
+      <c r="D8" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E8" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F8" s="31" t="str">
+      <c r="E8" s="28" t="str">
+        <f>IF(A8="HHB",C8*$E$1," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F8" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1490,15 +1487,15 @@
       <c r="C9" s="9">
         <v>521000</v>
       </c>
-      <c r="D9" s="31" t="str">
+      <c r="D9" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E9" s="32" t="str">
+      <c r="E9" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F9" s="31" t="str">
+      <c r="F9" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1513,15 +1510,15 @@
       <c r="C10" s="9">
         <v>527000</v>
       </c>
-      <c r="D10" s="31" t="str">
+      <c r="D10" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E10" s="32" t="str">
+      <c r="E10" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F10" s="31" t="str">
+      <c r="F10" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1536,15 +1533,15 @@
       <c r="C11" s="9">
         <v>626000</v>
       </c>
-      <c r="D11" s="31" t="str">
+      <c r="D11" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E11" s="32" t="str">
+      <c r="E11" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F11" s="31" t="str">
+      <c r="F11" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1559,15 +1556,15 @@
       <c r="C12" s="9">
         <v>656000</v>
       </c>
-      <c r="D12" s="31" t="str">
+      <c r="D12" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="28">
         <f t="shared" si="1"/>
         <v>144320</v>
       </c>
-      <c r="F12" s="31" t="str">
+      <c r="F12" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1582,15 +1579,15 @@
       <c r="C13" s="9">
         <v>666000</v>
       </c>
-      <c r="D13" s="31" t="str">
+      <c r="D13" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E13" s="32" t="str">
+      <c r="E13" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F13" s="31" t="str">
+      <c r="F13" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1605,15 +1602,15 @@
       <c r="C14" s="9">
         <v>882000</v>
       </c>
-      <c r="D14" s="31" t="str">
+      <c r="D14" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E14" s="32" t="str">
+      <c r="E14" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F14" s="31" t="str">
+      <c r="F14" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1628,15 +1625,15 @@
       <c r="C15" s="9">
         <v>1108000</v>
       </c>
-      <c r="D15" s="31" t="str">
+      <c r="D15" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E15" s="32" t="str">
+      <c r="E15" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F15" s="31" t="str">
+      <c r="F15" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1651,15 +1648,15 @@
       <c r="C16" s="9">
         <v>1316000</v>
       </c>
-      <c r="D16" s="31" t="str">
+      <c r="D16" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E16" s="32" t="str">
+      <c r="E16" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F16" s="31" t="str">
+      <c r="F16" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1674,15 +1671,15 @@
       <c r="C17" s="9">
         <v>1594000</v>
       </c>
-      <c r="D17" s="31" t="str">
+      <c r="D17" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E17" s="32" t="str">
+      <c r="E17" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F17" s="31" t="str">
+      <c r="F17" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1697,15 +1694,15 @@
       <c r="C18" s="9">
         <v>2719000</v>
       </c>
-      <c r="D18" s="31" t="str">
+      <c r="D18" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E18" s="32" t="str">
+      <c r="E18" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F18" s="31" t="str">
+      <c r="F18" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1720,15 +1717,15 @@
       <c r="C19" s="10">
         <v>0</v>
       </c>
-      <c r="D19" s="31" t="str">
+      <c r="D19" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E19" s="32" t="str">
+      <c r="E19" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F19" s="31" t="str">
+      <c r="F19" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1743,15 +1740,15 @@
       <c r="C20" s="9">
         <v>4092000</v>
       </c>
-      <c r="D20" s="31" t="str">
+      <c r="D20" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E20" s="32" t="str">
+      <c r="E20" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F20" s="31" t="str">
+      <c r="F20" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1766,15 +1763,15 @@
       <c r="C21" s="9">
         <v>13859000</v>
       </c>
-      <c r="D21" s="31" t="str">
+      <c r="D21" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E21" s="32" t="str">
+      <c r="E21" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F21" s="31" t="str">
+      <c r="F21" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1789,15 +1786,15 @@
       <c r="C22" s="10">
         <v>0</v>
       </c>
-      <c r="D22" s="31" t="str">
+      <c r="D22" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E22" s="32" t="str">
+      <c r="E22" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F22" s="31" t="str">
+      <c r="F22" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1812,15 +1809,15 @@
       <c r="C23" s="9">
         <v>167000</v>
       </c>
-      <c r="D23" s="31" t="str">
+      <c r="D23" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E23" s="32" t="str">
+      <c r="E23" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F23" s="31" t="str">
+      <c r="F23" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1835,15 +1832,15 @@
       <c r="C24" s="9">
         <v>202000</v>
       </c>
-      <c r="D24" s="31" t="str">
+      <c r="D24" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E24" s="32" t="str">
+      <c r="E24" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F24" s="31" t="str">
+      <c r="F24" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1858,15 +1855,15 @@
       <c r="C25" s="9">
         <v>203000</v>
       </c>
-      <c r="D25" s="31" t="str">
+      <c r="D25" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E25" s="32" t="str">
+      <c r="E25" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F25" s="31" t="str">
+      <c r="F25" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1881,15 +1878,15 @@
       <c r="C26" s="9">
         <v>234000</v>
       </c>
-      <c r="D26" s="31" t="str">
+      <c r="D26" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E26" s="32" t="str">
+      <c r="E26" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F26" s="31" t="str">
+      <c r="F26" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1904,15 +1901,15 @@
       <c r="C27" s="9">
         <v>252000</v>
       </c>
-      <c r="D27" s="31" t="str">
+      <c r="D27" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E27" s="32" t="str">
+      <c r="E27" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F27" s="31" t="str">
+      <c r="F27" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1927,15 +1924,15 @@
       <c r="C28" s="9">
         <v>259000</v>
       </c>
-      <c r="D28" s="31" t="str">
+      <c r="D28" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E28" s="32" t="str">
+      <c r="E28" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F28" s="31" t="str">
+      <c r="F28" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1950,15 +1947,15 @@
       <c r="C29" s="9">
         <v>269000</v>
       </c>
-      <c r="D29" s="31" t="str">
+      <c r="D29" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E29" s="32" t="str">
+      <c r="E29" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F29" s="31" t="str">
+      <c r="F29" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1973,15 +1970,15 @@
       <c r="C30" s="9">
         <v>271000</v>
       </c>
-      <c r="D30" s="31" t="str">
+      <c r="D30" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E30" s="32" t="str">
+      <c r="E30" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F30" s="31" t="str">
+      <c r="F30" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -1996,15 +1993,15 @@
       <c r="C31" s="9">
         <v>292000</v>
       </c>
-      <c r="D31" s="31" t="str">
+      <c r="D31" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E31" s="32" t="str">
+      <c r="E31" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F31" s="31" t="str">
+      <c r="F31" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2019,15 +2016,15 @@
       <c r="C32" s="9">
         <v>293000</v>
       </c>
-      <c r="D32" s="31" t="str">
+      <c r="D32" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E32" s="32" t="str">
+      <c r="E32" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F32" s="31" t="str">
+      <c r="F32" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2042,15 +2039,15 @@
       <c r="C33" s="9">
         <v>307000</v>
       </c>
-      <c r="D33" s="31" t="str">
+      <c r="D33" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E33" s="32" t="str">
+      <c r="E33" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F33" s="31" t="str">
+      <c r="F33" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2065,15 +2062,15 @@
       <c r="C34" s="9">
         <v>440000</v>
       </c>
-      <c r="D34" s="31" t="str">
+      <c r="D34" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E34" s="32" t="str">
+      <c r="E34" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F34" s="31" t="str">
+      <c r="F34" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2088,15 +2085,15 @@
       <c r="C35" s="9">
         <v>487000</v>
       </c>
-      <c r="D35" s="31" t="str">
+      <c r="D35" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E35" s="32" t="str">
+      <c r="E35" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F35" s="31" t="str">
+      <c r="F35" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2111,15 +2108,15 @@
       <c r="C36" s="9">
         <v>566000</v>
       </c>
-      <c r="D36" s="31" t="str">
+      <c r="D36" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E36" s="32" t="str">
+      <c r="E36" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F36" s="31" t="str">
+      <c r="F36" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2134,15 +2131,15 @@
       <c r="C37" s="9">
         <v>802000</v>
       </c>
-      <c r="D37" s="31" t="str">
+      <c r="D37" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E37" s="32" t="str">
+      <c r="E37" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F37" s="31" t="str">
+      <c r="F37" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2157,15 +2154,15 @@
       <c r="C38" s="9">
         <v>1579000</v>
       </c>
-      <c r="D38" s="31" t="str">
+      <c r="D38" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E38" s="32" t="str">
+      <c r="E38" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F38" s="31" t="str">
+      <c r="F38" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2180,15 +2177,15 @@
       <c r="C39" s="10">
         <v>0</v>
       </c>
-      <c r="D39" s="31" t="str">
+      <c r="D39" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E39" s="32" t="str">
+      <c r="E39" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F39" s="31" t="str">
+      <c r="F39" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2203,15 +2200,15 @@
       <c r="C40" s="9">
         <v>70000</v>
       </c>
-      <c r="D40" s="31" t="str">
+      <c r="D40" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E40" s="32" t="str">
+      <c r="E40" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F40" s="31" t="str">
+      <c r="F40" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2226,15 +2223,15 @@
       <c r="C41" s="9">
         <v>104000</v>
       </c>
-      <c r="D41" s="31" t="str">
+      <c r="D41" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E41" s="32" t="str">
+      <c r="E41" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F41" s="31" t="str">
+      <c r="F41" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2249,15 +2246,15 @@
       <c r="C42" s="9">
         <v>127000</v>
       </c>
-      <c r="D42" s="31" t="str">
+      <c r="D42" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E42" s="32" t="str">
+      <c r="E42" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F42" s="31" t="str">
+      <c r="F42" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2272,15 +2269,15 @@
       <c r="C43" s="9">
         <v>162000</v>
       </c>
-      <c r="D43" s="31" t="str">
+      <c r="D43" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E43" s="32" t="str">
+      <c r="E43" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F43" s="31" t="str">
+      <c r="F43" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2295,15 +2292,15 @@
       <c r="C44" s="9">
         <v>179000</v>
       </c>
-      <c r="D44" s="31" t="str">
+      <c r="D44" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E44" s="32" t="str">
+      <c r="E44" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F44" s="31" t="str">
+      <c r="F44" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2318,15 +2315,15 @@
       <c r="C45" s="9">
         <v>186000</v>
       </c>
-      <c r="D45" s="31" t="str">
+      <c r="D45" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E45" s="32" t="str">
+      <c r="E45" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F45" s="31" t="str">
+      <c r="F45" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2341,15 +2338,15 @@
       <c r="C46" s="9">
         <v>186000</v>
       </c>
-      <c r="D46" s="31" t="str">
+      <c r="D46" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E46" s="32" t="str">
+      <c r="E46" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F46" s="31" t="str">
+      <c r="F46" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2364,15 +2361,15 @@
       <c r="C47" s="9">
         <v>203000</v>
       </c>
-      <c r="D47" s="31" t="str">
+      <c r="D47" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E47" s="32" t="str">
+      <c r="E47" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F47" s="31" t="str">
+      <c r="F47" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2387,15 +2384,15 @@
       <c r="C48" s="9">
         <v>212000</v>
       </c>
-      <c r="D48" s="31" t="str">
+      <c r="D48" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E48" s="32" t="str">
+      <c r="E48" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F48" s="31" t="str">
+      <c r="F48" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2410,15 +2407,15 @@
       <c r="C49" s="9">
         <v>222000</v>
       </c>
-      <c r="D49" s="31" t="str">
+      <c r="D49" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E49" s="32" t="str">
+      <c r="E49" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F49" s="31" t="str">
+      <c r="F49" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2433,15 +2430,15 @@
       <c r="C50" s="9">
         <v>245000</v>
       </c>
-      <c r="D50" s="31" t="str">
+      <c r="D50" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E50" s="32" t="str">
+      <c r="E50" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F50" s="31" t="str">
+      <c r="F50" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2456,15 +2453,15 @@
       <c r="C51" s="9">
         <v>251000</v>
       </c>
-      <c r="D51" s="31" t="str">
+      <c r="D51" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E51" s="32" t="str">
+      <c r="E51" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F51" s="31" t="str">
+      <c r="F51" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2479,15 +2476,15 @@
       <c r="C52" s="9">
         <v>257000</v>
       </c>
-      <c r="D52" s="31" t="str">
+      <c r="D52" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E52" s="32" t="str">
+      <c r="E52" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F52" s="31" t="str">
+      <c r="F52" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2502,15 +2499,15 @@
       <c r="C53" s="9">
         <v>269000</v>
       </c>
-      <c r="D53" s="31" t="str">
+      <c r="D53" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E53" s="32" t="str">
+      <c r="E53" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F53" s="31" t="str">
+      <c r="F53" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2525,15 +2522,15 @@
       <c r="C54" s="9">
         <v>314000</v>
       </c>
-      <c r="D54" s="31" t="str">
+      <c r="D54" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E54" s="32" t="str">
+      <c r="E54" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F54" s="31" t="str">
+      <c r="F54" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2548,15 +2545,15 @@
       <c r="C55" s="9">
         <v>325000</v>
       </c>
-      <c r="D55" s="31" t="str">
+      <c r="D55" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E55" s="32" t="str">
+      <c r="E55" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F55" s="31" t="str">
+      <c r="F55" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2571,15 +2568,15 @@
       <c r="C56" s="9">
         <v>347000</v>
       </c>
-      <c r="D56" s="31" t="str">
+      <c r="D56" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Trovato</v>
       </c>
-      <c r="E56" s="32" t="str">
+      <c r="E56" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F56" s="31" t="str">
+      <c r="F56" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2594,15 +2591,15 @@
       <c r="C57" s="9">
         <v>369000</v>
       </c>
-      <c r="D57" s="31" t="str">
+      <c r="D57" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Trovato</v>
       </c>
-      <c r="E57" s="32" t="str">
+      <c r="E57" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F57" s="31" t="str">
+      <c r="F57" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2617,15 +2614,15 @@
       <c r="C58" s="9">
         <v>402000</v>
       </c>
-      <c r="D58" s="31" t="str">
+      <c r="D58" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Trovato</v>
       </c>
-      <c r="E58" s="32" t="str">
+      <c r="E58" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F58" s="31" t="str">
+      <c r="F58" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2640,15 +2637,15 @@
       <c r="C59" s="9">
         <v>471000</v>
       </c>
-      <c r="D59" s="31" t="str">
+      <c r="D59" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E59" s="32" t="str">
+      <c r="E59" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F59" s="31" t="str">
+      <c r="F59" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2663,15 +2660,15 @@
       <c r="C60" s="9">
         <v>476000</v>
       </c>
-      <c r="D60" s="31" t="str">
+      <c r="D60" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E60" s="32" t="str">
+      <c r="E60" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F60" s="31" t="str">
+      <c r="F60" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2686,15 +2683,15 @@
       <c r="C61" s="9">
         <v>492000</v>
       </c>
-      <c r="D61" s="31" t="str">
+      <c r="D61" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E61" s="32" t="str">
+      <c r="E61" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F61" s="31" t="str">
+      <c r="F61" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2709,15 +2706,15 @@
       <c r="C62" s="9">
         <v>531000</v>
       </c>
-      <c r="D62" s="31" t="str">
+      <c r="D62" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E62" s="32" t="str">
+      <c r="E62" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F62" s="31" t="str">
+      <c r="F62" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2732,15 +2729,15 @@
       <c r="C63" s="9">
         <v>552000</v>
       </c>
-      <c r="D63" s="31" t="str">
+      <c r="D63" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Trovato</v>
       </c>
-      <c r="E63" s="32" t="str">
+      <c r="E63" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F63" s="31" t="str">
+      <c r="F63" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2755,15 +2752,15 @@
       <c r="C64" s="9">
         <v>1487000</v>
       </c>
-      <c r="D64" s="31" t="str">
+      <c r="D64" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E64" s="32" t="str">
+      <c r="E64" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F64" s="31" t="str">
+      <c r="F64" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2778,15 +2775,15 @@
       <c r="C65" s="10">
         <v>0</v>
       </c>
-      <c r="D65" s="31" t="str">
+      <c r="D65" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E65" s="32" t="str">
+      <c r="E65" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F65" s="31" t="str">
+      <c r="F65" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2801,15 +2798,15 @@
       <c r="C66" s="9">
         <v>101000</v>
       </c>
-      <c r="D66" s="31" t="str">
+      <c r="D66" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E66" s="32" t="str">
+      <c r="E66" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F66" s="31" t="str">
+      <c r="F66" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2824,15 +2821,15 @@
       <c r="C67" s="9">
         <v>38000</v>
       </c>
-      <c r="D67" s="31" t="str">
+      <c r="D67" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E67" s="32" t="str">
+      <c r="E67" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F67" s="31" t="str">
+      <c r="F67" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2847,15 +2844,15 @@
       <c r="C68" s="9">
         <v>137000</v>
       </c>
-      <c r="D68" s="31" t="str">
+      <c r="D68" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E68" s="32" t="str">
+      <c r="E68" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F68" s="31" t="str">
+      <c r="F68" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2870,15 +2867,15 @@
       <c r="C69" s="9">
         <v>222000</v>
       </c>
-      <c r="D69" s="31" t="str">
+      <c r="D69" s="27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E69" s="32" t="str">
+      <c r="E69" s="28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F69" s="31" t="str">
+      <c r="F69" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2893,15 +2890,15 @@
       <c r="C70" s="9">
         <v>501000</v>
       </c>
-      <c r="D70" s="31" t="str">
+      <c r="D70" s="27" t="str">
         <f t="shared" ref="D70:D133" si="3">IF(AND(B70="Abbigliamento",C70&gt;300000),"Trovato"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E70" s="32" t="str">
-        <f t="shared" ref="E70:E133" si="4">IF(A70="HHB",C70*0.22," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F70" s="31" t="str">
+      <c r="E70" s="28" t="str">
+        <f t="shared" ref="E70:E133" si="4">IF(A70="HHB",C70*$E$1," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F70" s="27" t="str">
         <f t="shared" ref="F70:F133" si="5">IF(AND(B70="Manuali",C70&lt;1000000),"Vero"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -2916,15 +2913,15 @@
       <c r="C71" s="9">
         <v>428000</v>
       </c>
-      <c r="D71" s="31" t="str">
+      <c r="D71" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E71" s="32" t="str">
+      <c r="E71" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F71" s="31" t="str">
+      <c r="F71" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2939,15 +2936,15 @@
       <c r="C72" s="9">
         <v>561000</v>
       </c>
-      <c r="D72" s="31" t="str">
+      <c r="D72" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E72" s="32" t="str">
+      <c r="E72" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F72" s="31" t="str">
+      <c r="F72" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2962,15 +2959,15 @@
       <c r="C73" s="9">
         <v>1578000</v>
       </c>
-      <c r="D73" s="31" t="str">
+      <c r="D73" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E73" s="32" t="str">
+      <c r="E73" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F73" s="31" t="str">
+      <c r="F73" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2985,15 +2982,15 @@
       <c r="C74" s="9">
         <v>34000</v>
       </c>
-      <c r="D74" s="31" t="str">
+      <c r="D74" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E74" s="32" t="str">
+      <c r="E74" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F74" s="31" t="str">
+      <c r="F74" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3008,15 +3005,15 @@
       <c r="C75" s="9">
         <v>20000</v>
       </c>
-      <c r="D75" s="31" t="str">
+      <c r="D75" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E75" s="32" t="str">
+      <c r="E75" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F75" s="31" t="str">
+      <c r="F75" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3031,15 +3028,15 @@
       <c r="C76" s="9">
         <v>23000</v>
       </c>
-      <c r="D76" s="31" t="str">
+      <c r="D76" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E76" s="32" t="str">
+      <c r="E76" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F76" s="31" t="str">
+      <c r="F76" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3054,15 +3051,15 @@
       <c r="C77" s="9">
         <v>98000</v>
       </c>
-      <c r="D77" s="31" t="str">
+      <c r="D77" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E77" s="32" t="str">
+      <c r="E77" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F77" s="31" t="str">
+      <c r="F77" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3077,15 +3074,15 @@
       <c r="C78" s="9">
         <v>251000</v>
       </c>
-      <c r="D78" s="31" t="str">
+      <c r="D78" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E78" s="32" t="str">
+      <c r="E78" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F78" s="31" t="str">
+      <c r="F78" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3100,15 +3097,15 @@
       <c r="C79" s="9">
         <v>15000</v>
       </c>
-      <c r="D79" s="31" t="str">
+      <c r="D79" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E79" s="32" t="str">
+      <c r="E79" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F79" s="31" t="str">
+      <c r="F79" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3123,15 +3120,15 @@
       <c r="C80" s="9">
         <v>14000</v>
       </c>
-      <c r="D80" s="31" t="str">
+      <c r="D80" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E80" s="32" t="str">
+      <c r="E80" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F80" s="31" t="str">
+      <c r="F80" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3146,15 +3143,15 @@
       <c r="C81" s="10">
         <v>0</v>
       </c>
-      <c r="D81" s="31" t="str">
+      <c r="D81" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E81" s="32" t="str">
+      <c r="E81" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F81" s="31" t="str">
+      <c r="F81" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3169,15 +3166,15 @@
       <c r="C82" s="9">
         <v>399000</v>
       </c>
-      <c r="D82" s="31" t="str">
+      <c r="D82" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E82" s="32" t="str">
+      <c r="E82" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F82" s="31" t="str">
+      <c r="F82" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3192,15 +3189,15 @@
       <c r="C83" s="9">
         <v>259000</v>
       </c>
-      <c r="D83" s="31" t="str">
+      <c r="D83" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E83" s="32" t="str">
+      <c r="E83" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F83" s="31" t="str">
+      <c r="F83" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3215,15 +3212,15 @@
       <c r="C84" s="9">
         <v>324000</v>
       </c>
-      <c r="D84" s="31" t="str">
+      <c r="D84" s="27" t="str">
         <f t="shared" si="3"/>
         <v>Trovato</v>
       </c>
-      <c r="E84" s="32" t="str">
+      <c r="E84" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F84" s="31" t="str">
+      <c r="F84" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3238,15 +3235,15 @@
       <c r="C85" s="9">
         <v>378000</v>
       </c>
-      <c r="D85" s="31" t="str">
+      <c r="D85" s="27" t="str">
         <f t="shared" si="3"/>
         <v>Trovato</v>
       </c>
-      <c r="E85" s="32" t="str">
+      <c r="E85" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F85" s="31" t="str">
+      <c r="F85" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3261,15 +3258,15 @@
       <c r="C86" s="9">
         <v>469000</v>
       </c>
-      <c r="D86" s="31" t="str">
+      <c r="D86" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E86" s="32">
+      <c r="E86" s="28">
         <f t="shared" si="4"/>
         <v>103180</v>
       </c>
-      <c r="F86" s="31" t="str">
+      <c r="F86" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3284,15 +3281,15 @@
       <c r="C87" s="9">
         <v>556000</v>
       </c>
-      <c r="D87" s="31" t="str">
+      <c r="D87" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E87" s="32" t="str">
+      <c r="E87" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F87" s="31" t="str">
+      <c r="F87" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3307,15 +3304,15 @@
       <c r="C88" s="9">
         <v>476000</v>
       </c>
-      <c r="D88" s="31" t="str">
+      <c r="D88" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E88" s="32" t="str">
+      <c r="E88" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F88" s="31" t="str">
+      <c r="F88" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3330,15 +3327,15 @@
       <c r="C89" s="9">
         <v>477000</v>
       </c>
-      <c r="D89" s="31" t="str">
+      <c r="D89" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E89" s="32" t="str">
+      <c r="E89" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F89" s="31" t="str">
+      <c r="F89" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3353,15 +3350,15 @@
       <c r="C90" s="9">
         <v>556000</v>
       </c>
-      <c r="D90" s="31" t="str">
+      <c r="D90" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E90" s="32" t="str">
+      <c r="E90" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F90" s="31" t="str">
+      <c r="F90" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3376,15 +3373,15 @@
       <c r="C91" s="9">
         <v>695000</v>
       </c>
-      <c r="D91" s="31" t="str">
+      <c r="D91" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E91" s="32">
+      <c r="E91" s="28">
         <f t="shared" si="4"/>
         <v>152900</v>
       </c>
-      <c r="F91" s="31" t="str">
+      <c r="F91" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3399,15 +3396,15 @@
       <c r="C92" s="9">
         <v>1279000</v>
       </c>
-      <c r="D92" s="31" t="str">
+      <c r="D92" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E92" s="32" t="str">
+      <c r="E92" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F92" s="31" t="str">
+      <c r="F92" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3422,15 +3419,15 @@
       <c r="C93" s="9">
         <v>35000</v>
       </c>
-      <c r="D93" s="31" t="str">
+      <c r="D93" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E93" s="32" t="str">
+      <c r="E93" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F93" s="31" t="str">
+      <c r="F93" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3445,15 +3442,15 @@
       <c r="C94" s="9">
         <v>175000</v>
       </c>
-      <c r="D94" s="31" t="str">
+      <c r="D94" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E94" s="32" t="str">
+      <c r="E94" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F94" s="31" t="str">
+      <c r="F94" s="27" t="str">
         <f t="shared" si="5"/>
         <v>Vero</v>
       </c>
@@ -3468,15 +3465,15 @@
       <c r="C95" s="9">
         <v>272000</v>
       </c>
-      <c r="D95" s="31" t="str">
+      <c r="D95" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E95" s="32" t="str">
+      <c r="E95" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F95" s="31" t="str">
+      <c r="F95" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3491,15 +3488,15 @@
       <c r="C96" s="9">
         <v>198000</v>
       </c>
-      <c r="D96" s="31" t="str">
+      <c r="D96" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E96" s="32" t="str">
+      <c r="E96" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F96" s="31" t="str">
+      <c r="F96" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3514,15 +3511,15 @@
       <c r="C97" s="9">
         <v>290000</v>
       </c>
-      <c r="D97" s="31" t="str">
+      <c r="D97" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E97" s="32" t="str">
+      <c r="E97" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F97" s="31" t="str">
+      <c r="F97" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3537,15 +3534,15 @@
       <c r="C98" s="9">
         <v>589000</v>
       </c>
-      <c r="D98" s="31" t="str">
+      <c r="D98" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E98" s="32" t="str">
+      <c r="E98" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F98" s="31" t="str">
+      <c r="F98" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3560,15 +3557,15 @@
       <c r="C99" s="9">
         <v>743000</v>
       </c>
-      <c r="D99" s="31" t="str">
+      <c r="D99" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E99" s="32" t="str">
+      <c r="E99" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F99" s="31" t="str">
+      <c r="F99" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3583,15 +3580,15 @@
       <c r="C100" s="9">
         <v>271000</v>
       </c>
-      <c r="D100" s="31" t="str">
+      <c r="D100" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E100" s="32" t="str">
+      <c r="E100" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F100" s="31" t="str">
+      <c r="F100" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3606,15 +3603,15 @@
       <c r="C101" s="9">
         <v>632000</v>
       </c>
-      <c r="D101" s="31" t="str">
+      <c r="D101" s="27" t="str">
         <f t="shared" si="3"/>
         <v>Trovato</v>
       </c>
-      <c r="E101" s="32" t="str">
+      <c r="E101" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F101" s="31" t="str">
+      <c r="F101" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3629,15 +3626,15 @@
       <c r="C102" s="9">
         <v>90000</v>
       </c>
-      <c r="D102" s="31" t="str">
+      <c r="D102" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E102" s="32" t="str">
+      <c r="E102" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F102" s="31" t="str">
+      <c r="F102" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3652,15 +3649,15 @@
       <c r="C103" s="9">
         <v>4000</v>
       </c>
-      <c r="D103" s="31" t="str">
+      <c r="D103" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E103" s="32" t="str">
+      <c r="E103" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F103" s="31" t="str">
+      <c r="F103" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3675,15 +3672,15 @@
       <c r="C104" s="9">
         <v>5000</v>
       </c>
-      <c r="D104" s="31" t="str">
+      <c r="D104" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E104" s="32" t="str">
+      <c r="E104" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F104" s="31" t="str">
+      <c r="F104" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3698,15 +3695,15 @@
       <c r="C105" s="9">
         <v>41000</v>
       </c>
-      <c r="D105" s="31" t="str">
+      <c r="D105" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E105" s="32" t="str">
+      <c r="E105" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F105" s="31" t="str">
+      <c r="F105" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3721,15 +3718,15 @@
       <c r="C106" s="10">
         <v>0</v>
       </c>
-      <c r="D106" s="31" t="str">
+      <c r="D106" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E106" s="32" t="str">
+      <c r="E106" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F106" s="31" t="str">
+      <c r="F106" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3744,15 +3741,15 @@
       <c r="C107" s="9">
         <v>737000</v>
       </c>
-      <c r="D107" s="31" t="str">
+      <c r="D107" s="27" t="str">
         <f t="shared" si="3"/>
         <v>Trovato</v>
       </c>
-      <c r="E107" s="32" t="str">
+      <c r="E107" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F107" s="31" t="str">
+      <c r="F107" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3767,15 +3764,15 @@
       <c r="C108" s="9">
         <v>910000</v>
       </c>
-      <c r="D108" s="31" t="str">
+      <c r="D108" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E108" s="32" t="str">
+      <c r="E108" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F108" s="31" t="str">
+      <c r="F108" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3790,15 +3787,15 @@
       <c r="C109" s="9">
         <v>241000</v>
       </c>
-      <c r="D109" s="31" t="str">
+      <c r="D109" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E109" s="32" t="str">
+      <c r="E109" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F109" s="31" t="str">
+      <c r="F109" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3813,15 +3810,15 @@
       <c r="C110" s="10">
         <v>0</v>
       </c>
-      <c r="D110" s="31" t="str">
+      <c r="D110" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E110" s="32" t="str">
+      <c r="E110" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F110" s="31" t="str">
+      <c r="F110" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3836,15 +3833,15 @@
       <c r="C111" s="9">
         <v>112000</v>
       </c>
-      <c r="D111" s="31" t="str">
+      <c r="D111" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E111" s="32" t="str">
+      <c r="E111" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F111" s="31" t="str">
+      <c r="F111" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3859,15 +3856,15 @@
       <c r="C112" s="9">
         <v>113000</v>
       </c>
-      <c r="D112" s="31" t="str">
+      <c r="D112" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E112" s="32" t="str">
+      <c r="E112" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F112" s="31" t="str">
+      <c r="F112" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3882,15 +3879,15 @@
       <c r="C113" s="9">
         <v>121000</v>
       </c>
-      <c r="D113" s="31" t="str">
+      <c r="D113" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E113" s="32" t="str">
+      <c r="E113" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F113" s="31" t="str">
+      <c r="F113" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3905,15 +3902,15 @@
       <c r="C114" s="9">
         <v>160000</v>
       </c>
-      <c r="D114" s="31" t="str">
+      <c r="D114" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E114" s="32" t="str">
+      <c r="E114" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F114" s="31" t="str">
+      <c r="F114" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3928,15 +3925,15 @@
       <c r="C115" s="9">
         <v>195000</v>
       </c>
-      <c r="D115" s="31" t="str">
+      <c r="D115" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E115" s="32" t="str">
+      <c r="E115" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F115" s="31" t="str">
+      <c r="F115" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3951,15 +3948,15 @@
       <c r="C116" s="9">
         <v>215000</v>
       </c>
-      <c r="D116" s="31" t="str">
+      <c r="D116" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E116" s="32" t="str">
+      <c r="E116" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F116" s="31" t="str">
+      <c r="F116" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3974,15 +3971,15 @@
       <c r="C117" s="9">
         <v>321000</v>
       </c>
-      <c r="D117" s="31" t="str">
+      <c r="D117" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E117" s="32" t="str">
+      <c r="E117" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F117" s="31" t="str">
+      <c r="F117" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -3997,15 +3994,15 @@
       <c r="C118" s="9">
         <v>614000</v>
       </c>
-      <c r="D118" s="31" t="str">
+      <c r="D118" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E118" s="32" t="str">
+      <c r="E118" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F118" s="31" t="str">
+      <c r="F118" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4020,15 +4017,15 @@
       <c r="C119" s="10">
         <v>0</v>
       </c>
-      <c r="D119" s="31" t="str">
+      <c r="D119" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E119" s="32" t="str">
+      <c r="E119" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F119" s="31" t="str">
+      <c r="F119" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4043,15 +4040,15 @@
       <c r="C120" s="9">
         <v>30000</v>
       </c>
-      <c r="D120" s="31" t="str">
+      <c r="D120" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E120" s="32" t="str">
+      <c r="E120" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F120" s="31" t="str">
+      <c r="F120" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4066,15 +4063,15 @@
       <c r="C121" s="9">
         <v>34000</v>
       </c>
-      <c r="D121" s="31" t="str">
+      <c r="D121" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E121" s="32" t="str">
+      <c r="E121" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F121" s="31" t="str">
+      <c r="F121" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4089,15 +4086,15 @@
       <c r="C122" s="9">
         <v>35000</v>
       </c>
-      <c r="D122" s="31" t="str">
+      <c r="D122" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E122" s="32" t="str">
+      <c r="E122" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F122" s="31" t="str">
+      <c r="F122" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4112,15 +4109,15 @@
       <c r="C123" s="9">
         <v>77000</v>
       </c>
-      <c r="D123" s="31" t="str">
+      <c r="D123" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E123" s="32" t="str">
+      <c r="E123" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F123" s="31" t="str">
+      <c r="F123" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4135,15 +4132,15 @@
       <c r="C124" s="9">
         <v>723000</v>
       </c>
-      <c r="D124" s="31" t="str">
+      <c r="D124" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E124" s="32" t="str">
+      <c r="E124" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F124" s="31" t="str">
+      <c r="F124" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4158,15 +4155,15 @@
       <c r="C125" s="9">
         <v>742000</v>
       </c>
-      <c r="D125" s="31" t="str">
+      <c r="D125" s="27" t="str">
         <f t="shared" si="3"/>
         <v>Trovato</v>
       </c>
-      <c r="E125" s="32" t="str">
+      <c r="E125" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F125" s="31" t="str">
+      <c r="F125" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4181,15 +4178,15 @@
       <c r="C126" s="9">
         <v>778000</v>
       </c>
-      <c r="D126" s="31" t="str">
+      <c r="D126" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E126" s="32" t="str">
+      <c r="E126" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F126" s="31" t="str">
+      <c r="F126" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4204,15 +4201,15 @@
       <c r="C127" s="9">
         <v>878000</v>
       </c>
-      <c r="D127" s="31" t="str">
+      <c r="D127" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E127" s="32" t="str">
+      <c r="E127" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F127" s="31" t="str">
+      <c r="F127" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4227,15 +4224,15 @@
       <c r="C128" s="9">
         <v>883000</v>
       </c>
-      <c r="D128" s="31" t="str">
+      <c r="D128" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E128" s="32" t="str">
+      <c r="E128" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F128" s="31" t="str">
+      <c r="F128" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4250,15 +4247,15 @@
       <c r="C129" s="9">
         <v>913000</v>
       </c>
-      <c r="D129" s="31" t="str">
+      <c r="D129" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E129" s="32" t="str">
+      <c r="E129" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F129" s="31" t="str">
+      <c r="F129" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4273,15 +4270,15 @@
       <c r="C130" s="9">
         <v>1125000</v>
       </c>
-      <c r="D130" s="31" t="str">
+      <c r="D130" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E130" s="32" t="str">
+      <c r="E130" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F130" s="31" t="str">
+      <c r="F130" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4296,15 +4293,15 @@
       <c r="C131" s="10">
         <v>0</v>
       </c>
-      <c r="D131" s="31" t="str">
+      <c r="D131" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E131" s="32" t="str">
+      <c r="E131" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F131" s="31" t="str">
+      <c r="F131" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4319,15 +4316,15 @@
       <c r="C132" s="9">
         <v>33000</v>
       </c>
-      <c r="D132" s="31" t="str">
+      <c r="D132" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E132" s="32" t="str">
+      <c r="E132" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F132" s="31" t="str">
+      <c r="F132" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4342,15 +4339,15 @@
       <c r="C133" s="9">
         <v>52000</v>
       </c>
-      <c r="D133" s="31" t="str">
+      <c r="D133" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E133" s="32" t="str">
+      <c r="E133" s="28" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F133" s="31" t="str">
+      <c r="F133" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4365,15 +4362,15 @@
       <c r="C134" s="9">
         <v>97000</v>
       </c>
-      <c r="D134" s="31" t="str">
+      <c r="D134" s="27" t="str">
         <f t="shared" ref="D134:D197" si="6">IF(AND(B134="Abbigliamento",C134&gt;300000),"Trovato"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E134" s="32" t="str">
-        <f t="shared" ref="E134:E197" si="7">IF(A134="HHB",C134*0.22," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F134" s="31" t="str">
+      <c r="E134" s="28" t="str">
+        <f t="shared" ref="E134:E197" si="7">IF(A134="HHB",C134*$E$1," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F134" s="27" t="str">
         <f t="shared" ref="F134:F197" si="8">IF(AND(B134="Manuali",C134&lt;1000000),"Vero"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -4388,15 +4385,15 @@
       <c r="C135" s="10">
         <v>0</v>
       </c>
-      <c r="D135" s="31" t="str">
+      <c r="D135" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E135" s="32" t="str">
+      <c r="E135" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F135" s="31" t="str">
+      <c r="F135" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4411,15 +4408,15 @@
       <c r="C136" s="9">
         <v>131000</v>
       </c>
-      <c r="D136" s="31" t="str">
+      <c r="D136" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E136" s="32" t="str">
+      <c r="E136" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F136" s="31" t="str">
+      <c r="F136" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4434,15 +4431,15 @@
       <c r="C137" s="9">
         <v>169000</v>
       </c>
-      <c r="D137" s="31" t="str">
+      <c r="D137" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E137" s="32" t="str">
+      <c r="E137" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F137" s="31" t="str">
+      <c r="F137" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4457,15 +4454,15 @@
       <c r="C138" s="9">
         <v>190000</v>
       </c>
-      <c r="D138" s="31" t="str">
+      <c r="D138" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E138" s="32" t="str">
+      <c r="E138" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F138" s="31" t="str">
+      <c r="F138" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4480,15 +4477,15 @@
       <c r="C139" s="9">
         <v>191000</v>
       </c>
-      <c r="D139" s="31" t="str">
+      <c r="D139" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E139" s="32" t="str">
+      <c r="E139" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F139" s="31" t="str">
+      <c r="F139" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4503,15 +4500,15 @@
       <c r="C140" s="9">
         <v>197000</v>
       </c>
-      <c r="D140" s="31" t="str">
+      <c r="D140" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E140" s="32" t="str">
+      <c r="E140" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F140" s="31" t="str">
+      <c r="F140" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4526,15 +4523,15 @@
       <c r="C141" s="9">
         <v>201000</v>
       </c>
-      <c r="D141" s="31" t="str">
+      <c r="D141" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E141" s="32" t="str">
+      <c r="E141" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F141" s="31" t="str">
+      <c r="F141" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4549,15 +4546,15 @@
       <c r="C142" s="9">
         <v>220000</v>
       </c>
-      <c r="D142" s="31" t="str">
+      <c r="D142" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E142" s="32" t="str">
+      <c r="E142" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F142" s="31" t="str">
+      <c r="F142" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4572,15 +4569,15 @@
       <c r="C143" s="9">
         <v>250000</v>
       </c>
-      <c r="D143" s="31" t="str">
+      <c r="D143" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E143" s="32" t="str">
+      <c r="E143" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F143" s="31" t="str">
+      <c r="F143" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4595,15 +4592,15 @@
       <c r="C144" s="9">
         <v>257000</v>
       </c>
-      <c r="D144" s="31" t="str">
+      <c r="D144" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E144" s="32" t="str">
+      <c r="E144" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F144" s="31" t="str">
+      <c r="F144" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4618,15 +4615,15 @@
       <c r="C145" s="9">
         <v>278000</v>
       </c>
-      <c r="D145" s="31" t="str">
+      <c r="D145" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E145" s="32" t="str">
+      <c r="E145" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F145" s="31" t="str">
+      <c r="F145" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4641,15 +4638,15 @@
       <c r="C146" s="9">
         <v>280000</v>
       </c>
-      <c r="D146" s="31" t="str">
+      <c r="D146" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E146" s="32" t="str">
+      <c r="E146" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F146" s="31" t="str">
+      <c r="F146" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4664,15 +4661,15 @@
       <c r="C147" s="9">
         <v>300000</v>
       </c>
-      <c r="D147" s="31" t="str">
+      <c r="D147" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E147" s="32" t="str">
+      <c r="E147" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F147" s="31" t="str">
+      <c r="F147" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4687,15 +4684,15 @@
       <c r="C148" s="9">
         <v>305000</v>
       </c>
-      <c r="D148" s="31" t="str">
+      <c r="D148" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E148" s="32" t="str">
+      <c r="E148" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F148" s="31" t="str">
+      <c r="F148" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4710,15 +4707,15 @@
       <c r="C149" s="9">
         <v>335000</v>
       </c>
-      <c r="D149" s="31" t="str">
+      <c r="D149" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E149" s="32" t="str">
+      <c r="E149" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F149" s="31" t="str">
+      <c r="F149" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4733,15 +4730,15 @@
       <c r="C150" s="9">
         <v>360000</v>
       </c>
-      <c r="D150" s="31" t="str">
+      <c r="D150" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E150" s="32" t="str">
+      <c r="E150" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F150" s="31" t="str">
+      <c r="F150" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4756,15 +4753,15 @@
       <c r="C151" s="9">
         <v>429000</v>
       </c>
-      <c r="D151" s="31" t="str">
+      <c r="D151" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E151" s="32" t="str">
+      <c r="E151" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F151" s="31" t="str">
+      <c r="F151" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4779,15 +4776,15 @@
       <c r="C152" s="9">
         <v>701000</v>
       </c>
-      <c r="D152" s="31" t="str">
+      <c r="D152" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E152" s="32" t="str">
+      <c r="E152" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F152" s="31" t="str">
+      <c r="F152" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4802,15 +4799,15 @@
       <c r="C153" s="10">
         <v>0</v>
       </c>
-      <c r="D153" s="31" t="str">
+      <c r="D153" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E153" s="32" t="str">
+      <c r="E153" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F153" s="31" t="str">
+      <c r="F153" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4825,15 +4822,15 @@
       <c r="C154" s="9">
         <v>90000</v>
       </c>
-      <c r="D154" s="31" t="str">
+      <c r="D154" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E154" s="32" t="str">
+      <c r="E154" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F154" s="31" t="str">
+      <c r="F154" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4848,15 +4845,15 @@
       <c r="C155" s="9">
         <v>69000</v>
       </c>
-      <c r="D155" s="31" t="str">
+      <c r="D155" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E155" s="32" t="str">
+      <c r="E155" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F155" s="31" t="str">
+      <c r="F155" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4871,15 +4868,15 @@
       <c r="C156" s="9">
         <v>89000</v>
       </c>
-      <c r="D156" s="31" t="str">
+      <c r="D156" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E156" s="32" t="str">
+      <c r="E156" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F156" s="31" t="str">
+      <c r="F156" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4894,15 +4891,15 @@
       <c r="C157" s="9">
         <v>138000</v>
       </c>
-      <c r="D157" s="31" t="str">
+      <c r="D157" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E157" s="32" t="str">
+      <c r="E157" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F157" s="31" t="str">
+      <c r="F157" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4917,15 +4914,15 @@
       <c r="C158" s="9">
         <v>196000</v>
       </c>
-      <c r="D158" s="31" t="str">
+      <c r="D158" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E158" s="32" t="str">
+      <c r="E158" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F158" s="31" t="str">
+      <c r="F158" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4940,15 +4937,15 @@
       <c r="C159" s="9">
         <v>329000</v>
       </c>
-      <c r="D159" s="31" t="str">
+      <c r="D159" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E159" s="32" t="str">
+      <c r="E159" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F159" s="31" t="str">
+      <c r="F159" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4963,15 +4960,15 @@
       <c r="C160" s="9">
         <v>295000</v>
       </c>
-      <c r="D160" s="31" t="str">
+      <c r="D160" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E160" s="32" t="str">
+      <c r="E160" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F160" s="31" t="str">
+      <c r="F160" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -4986,15 +4983,15 @@
       <c r="C161" s="9">
         <v>19000</v>
       </c>
-      <c r="D161" s="31" t="str">
+      <c r="D161" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E161" s="32" t="str">
+      <c r="E161" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F161" s="31" t="str">
+      <c r="F161" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5009,15 +5006,15 @@
       <c r="C162" s="9">
         <v>26000</v>
       </c>
-      <c r="D162" s="31" t="str">
+      <c r="D162" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E162" s="32" t="str">
+      <c r="E162" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F162" s="31" t="str">
+      <c r="F162" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5032,15 +5029,15 @@
       <c r="C163" s="9">
         <v>28000</v>
       </c>
-      <c r="D163" s="31" t="str">
+      <c r="D163" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E163" s="32" t="str">
+      <c r="E163" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F163" s="31" t="str">
+      <c r="F163" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5055,15 +5052,15 @@
       <c r="C164" s="9">
         <v>56000</v>
       </c>
-      <c r="D164" s="31" t="str">
+      <c r="D164" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E164" s="32" t="str">
+      <c r="E164" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F164" s="31" t="str">
+      <c r="F164" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5078,15 +5075,15 @@
       <c r="C165" s="10">
         <v>0</v>
       </c>
-      <c r="D165" s="31" t="str">
+      <c r="D165" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E165" s="32">
+      <c r="E165" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F165" s="31" t="str">
+      <c r="F165" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5101,15 +5098,15 @@
       <c r="C166" s="9">
         <v>216000</v>
       </c>
-      <c r="D166" s="31" t="str">
+      <c r="D166" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E166" s="32" t="str">
+      <c r="E166" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F166" s="31" t="str">
+      <c r="F166" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5124,15 +5121,15 @@
       <c r="C167" s="9">
         <v>250000</v>
       </c>
-      <c r="D167" s="31" t="str">
+      <c r="D167" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E167" s="32" t="str">
+      <c r="E167" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F167" s="31" t="str">
+      <c r="F167" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5147,15 +5144,15 @@
       <c r="C168" s="9">
         <v>382000</v>
       </c>
-      <c r="D168" s="31" t="str">
+      <c r="D168" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E168" s="32" t="str">
+      <c r="E168" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F168" s="31" t="str">
+      <c r="F168" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5170,15 +5167,15 @@
       <c r="C169" s="9">
         <v>524000</v>
       </c>
-      <c r="D169" s="31" t="str">
+      <c r="D169" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E169" s="32" t="str">
+      <c r="E169" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F169" s="31" t="str">
+      <c r="F169" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5193,15 +5190,15 @@
       <c r="C170" s="9">
         <v>757000</v>
       </c>
-      <c r="D170" s="31" t="str">
+      <c r="D170" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E170" s="32">
+      <c r="E170" s="28">
         <f t="shared" si="7"/>
         <v>166540</v>
       </c>
-      <c r="F170" s="31" t="str">
+      <c r="F170" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5216,15 +5213,15 @@
       <c r="C171" s="9">
         <v>1045000</v>
       </c>
-      <c r="D171" s="31" t="str">
+      <c r="D171" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E171" s="32" t="str">
+      <c r="E171" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F171" s="31" t="str">
+      <c r="F171" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5239,15 +5236,15 @@
       <c r="C172" s="9">
         <v>1568000</v>
       </c>
-      <c r="D172" s="31" t="str">
+      <c r="D172" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E172" s="32" t="str">
+      <c r="E172" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F172" s="31" t="str">
+      <c r="F172" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5262,15 +5259,15 @@
       <c r="C173" s="9">
         <v>117000</v>
       </c>
-      <c r="D173" s="31" t="str">
+      <c r="D173" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E173" s="32" t="str">
+      <c r="E173" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F173" s="31" t="str">
+      <c r="F173" s="27" t="str">
         <f t="shared" si="8"/>
         <v>Vero</v>
       </c>
@@ -5285,15 +5282,15 @@
       <c r="C174" s="9">
         <v>158000</v>
       </c>
-      <c r="D174" s="31" t="str">
+      <c r="D174" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E174" s="32" t="str">
+      <c r="E174" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F174" s="31" t="str">
+      <c r="F174" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5308,15 +5305,15 @@
       <c r="C175" s="9">
         <v>260000</v>
       </c>
-      <c r="D175" s="31" t="str">
+      <c r="D175" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E175" s="32" t="str">
+      <c r="E175" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F175" s="31" t="str">
+      <c r="F175" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5331,15 +5328,15 @@
       <c r="C176" s="9">
         <v>193000</v>
       </c>
-      <c r="D176" s="31" t="str">
+      <c r="D176" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E176" s="32" t="str">
+      <c r="E176" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F176" s="31" t="str">
+      <c r="F176" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5354,15 +5351,15 @@
       <c r="C177" s="9">
         <v>270000</v>
       </c>
-      <c r="D177" s="31" t="str">
+      <c r="D177" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E177" s="32" t="str">
+      <c r="E177" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F177" s="31" t="str">
+      <c r="F177" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5377,15 +5374,15 @@
       <c r="C178" s="9">
         <v>314000</v>
       </c>
-      <c r="D178" s="31" t="str">
+      <c r="D178" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E178" s="32" t="str">
+      <c r="E178" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F178" s="31" t="str">
+      <c r="F178" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5400,15 +5397,15 @@
       <c r="C179" s="9">
         <v>894000</v>
       </c>
-      <c r="D179" s="31" t="str">
+      <c r="D179" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E179" s="32" t="str">
+      <c r="E179" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F179" s="31" t="str">
+      <c r="F179" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5423,15 +5420,15 @@
       <c r="C180" s="9">
         <v>1040000</v>
       </c>
-      <c r="D180" s="31" t="str">
+      <c r="D180" s="27" t="str">
         <f t="shared" si="6"/>
         <v>Trovato</v>
       </c>
-      <c r="E180" s="32" t="str">
+      <c r="E180" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F180" s="31" t="str">
+      <c r="F180" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5446,15 +5443,15 @@
       <c r="C181" s="9">
         <v>8000</v>
       </c>
-      <c r="D181" s="31" t="str">
+      <c r="D181" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E181" s="32" t="str">
+      <c r="E181" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F181" s="31" t="str">
+      <c r="F181" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5469,15 +5466,15 @@
       <c r="C182" s="9">
         <v>10000</v>
       </c>
-      <c r="D182" s="31" t="str">
+      <c r="D182" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E182" s="32" t="str">
+      <c r="E182" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F182" s="31" t="str">
+      <c r="F182" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5492,15 +5489,15 @@
       <c r="C183" s="9">
         <v>24000</v>
       </c>
-      <c r="D183" s="31" t="str">
+      <c r="D183" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E183" s="32" t="str">
+      <c r="E183" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F183" s="31" t="str">
+      <c r="F183" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5515,15 +5512,15 @@
       <c r="C184" s="9">
         <v>11000</v>
       </c>
-      <c r="D184" s="31" t="str">
+      <c r="D184" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E184" s="32" t="str">
+      <c r="E184" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F184" s="31" t="str">
+      <c r="F184" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5538,15 +5535,15 @@
       <c r="C185" s="9">
         <v>10000</v>
       </c>
-      <c r="D185" s="31" t="str">
+      <c r="D185" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E185" s="32" t="str">
+      <c r="E185" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F185" s="31" t="str">
+      <c r="F185" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5561,15 +5558,15 @@
       <c r="C186" s="9">
         <v>26000</v>
       </c>
-      <c r="D186" s="31" t="str">
+      <c r="D186" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E186" s="32" t="str">
+      <c r="E186" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F186" s="31" t="str">
+      <c r="F186" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5584,15 +5581,15 @@
       <c r="C187" s="10">
         <v>0</v>
       </c>
-      <c r="D187" s="31" t="str">
+      <c r="D187" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E187" s="32" t="str">
+      <c r="E187" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F187" s="31" t="str">
+      <c r="F187" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5607,15 +5604,15 @@
       <c r="C188" s="9">
         <v>22000</v>
       </c>
-      <c r="D188" s="31" t="str">
+      <c r="D188" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E188" s="32" t="str">
+      <c r="E188" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F188" s="31" t="str">
+      <c r="F188" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5630,15 +5627,15 @@
       <c r="C189" s="9">
         <v>63000</v>
       </c>
-      <c r="D189" s="31" t="str">
+      <c r="D189" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E189" s="32" t="str">
+      <c r="E189" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F189" s="31" t="str">
+      <c r="F189" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5653,15 +5650,15 @@
       <c r="C190" s="9">
         <v>63000</v>
       </c>
-      <c r="D190" s="31" t="str">
+      <c r="D190" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E190" s="32" t="str">
+      <c r="E190" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F190" s="31" t="str">
+      <c r="F190" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5676,15 +5673,15 @@
       <c r="C191" s="9">
         <v>26000</v>
       </c>
-      <c r="D191" s="31" t="str">
+      <c r="D191" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E191" s="32" t="str">
+      <c r="E191" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F191" s="31" t="str">
+      <c r="F191" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5699,15 +5696,15 @@
       <c r="C192" s="9">
         <v>25000</v>
       </c>
-      <c r="D192" s="31" t="str">
+      <c r="D192" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E192" s="32" t="str">
+      <c r="E192" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F192" s="31" t="str">
+      <c r="F192" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5722,15 +5719,15 @@
       <c r="C193" s="9">
         <v>25000</v>
       </c>
-      <c r="D193" s="31" t="str">
+      <c r="D193" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E193" s="32" t="str">
+      <c r="E193" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F193" s="31" t="str">
+      <c r="F193" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5745,15 +5742,15 @@
       <c r="C194" s="9">
         <v>46000</v>
       </c>
-      <c r="D194" s="31" t="str">
+      <c r="D194" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E194" s="32" t="str">
+      <c r="E194" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F194" s="31" t="str">
+      <c r="F194" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5768,15 +5765,15 @@
       <c r="C195" s="10">
         <v>0</v>
       </c>
-      <c r="D195" s="31" t="str">
+      <c r="D195" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E195" s="32" t="str">
+      <c r="E195" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F195" s="31" t="str">
+      <c r="F195" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5791,15 +5788,15 @@
       <c r="C196" s="9">
         <v>37000</v>
       </c>
-      <c r="D196" s="31" t="str">
+      <c r="D196" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E196" s="32" t="str">
+      <c r="E196" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F196" s="31" t="str">
+      <c r="F196" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5814,15 +5811,15 @@
       <c r="C197" s="9">
         <v>37000</v>
       </c>
-      <c r="D197" s="31" t="str">
+      <c r="D197" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E197" s="32" t="str">
+      <c r="E197" s="28" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F197" s="31" t="str">
+      <c r="F197" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5837,15 +5834,15 @@
       <c r="C198" s="9">
         <v>11000</v>
       </c>
-      <c r="D198" s="31" t="str">
+      <c r="D198" s="27" t="str">
         <f t="shared" ref="D198:D261" si="9">IF(AND(B198="Abbigliamento",C198&gt;300000),"Trovato"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E198" s="32" t="str">
-        <f t="shared" ref="E198:E261" si="10">IF(A198="HHB",C198*0.22," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F198" s="31" t="str">
+      <c r="E198" s="28" t="str">
+        <f t="shared" ref="E198:E261" si="10">IF(A198="HHB",C198*$E$1," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F198" s="27" t="str">
         <f t="shared" ref="F198:F261" si="11">IF(AND(B198="Manuali",C198&lt;1000000),"Vero"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -5860,15 +5857,15 @@
       <c r="C199" s="9">
         <v>46000</v>
       </c>
-      <c r="D199" s="31" t="str">
+      <c r="D199" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E199" s="32" t="str">
+      <c r="E199" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F199" s="31" t="str">
+      <c r="F199" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5883,15 +5880,15 @@
       <c r="C200" s="9">
         <v>19000</v>
       </c>
-      <c r="D200" s="31" t="str">
+      <c r="D200" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E200" s="32" t="str">
+      <c r="E200" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F200" s="31" t="str">
+      <c r="F200" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5906,15 +5903,15 @@
       <c r="C201" s="9">
         <v>13000</v>
       </c>
-      <c r="D201" s="31" t="str">
+      <c r="D201" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E201" s="32" t="str">
+      <c r="E201" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F201" s="31" t="str">
+      <c r="F201" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5929,15 +5926,15 @@
       <c r="C202" s="9">
         <v>26000</v>
       </c>
-      <c r="D202" s="31" t="str">
+      <c r="D202" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E202" s="32" t="str">
+      <c r="E202" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F202" s="31" t="str">
+      <c r="F202" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5952,15 +5949,15 @@
       <c r="C203" s="9">
         <v>26000</v>
       </c>
-      <c r="D203" s="31" t="str">
+      <c r="D203" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E203" s="32" t="str">
+      <c r="E203" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F203" s="31" t="str">
+      <c r="F203" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5975,15 +5972,15 @@
       <c r="C204" s="9">
         <v>20000</v>
       </c>
-      <c r="D204" s="31" t="str">
+      <c r="D204" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E204" s="32" t="str">
+      <c r="E204" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F204" s="31" t="str">
+      <c r="F204" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -5998,15 +5995,15 @@
       <c r="C205" s="9">
         <v>49000</v>
       </c>
-      <c r="D205" s="31" t="str">
+      <c r="D205" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E205" s="32" t="str">
+      <c r="E205" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F205" s="31" t="str">
+      <c r="F205" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6021,15 +6018,15 @@
       <c r="C206" s="9">
         <v>33000</v>
       </c>
-      <c r="D206" s="31" t="str">
+      <c r="D206" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E206" s="32" t="str">
+      <c r="E206" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F206" s="31" t="str">
+      <c r="F206" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6044,15 +6041,15 @@
       <c r="C207" s="9">
         <v>68000</v>
       </c>
-      <c r="D207" s="31" t="str">
+      <c r="D207" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E207" s="32" t="str">
+      <c r="E207" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F207" s="31" t="str">
+      <c r="F207" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6067,15 +6064,15 @@
       <c r="C208" s="9">
         <v>33000</v>
       </c>
-      <c r="D208" s="31" t="str">
+      <c r="D208" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E208" s="32" t="str">
+      <c r="E208" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F208" s="31" t="str">
+      <c r="F208" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6090,15 +6087,15 @@
       <c r="C209" s="9">
         <v>147000</v>
       </c>
-      <c r="D209" s="31" t="str">
+      <c r="D209" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E209" s="32" t="str">
+      <c r="E209" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F209" s="31" t="str">
+      <c r="F209" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6113,15 +6110,15 @@
       <c r="C210" s="9">
         <v>151000</v>
       </c>
-      <c r="D210" s="31" t="str">
+      <c r="D210" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E210" s="32" t="str">
+      <c r="E210" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F210" s="31" t="str">
+      <c r="F210" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6136,15 +6133,15 @@
       <c r="C211" s="9">
         <v>197000</v>
       </c>
-      <c r="D211" s="31" t="str">
+      <c r="D211" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E211" s="32" t="str">
+      <c r="E211" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F211" s="31" t="str">
+      <c r="F211" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6159,15 +6156,15 @@
       <c r="C212" s="9">
         <v>310000</v>
       </c>
-      <c r="D212" s="31" t="str">
+      <c r="D212" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E212" s="32" t="str">
+      <c r="E212" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F212" s="31" t="str">
+      <c r="F212" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6182,15 +6179,15 @@
       <c r="C213" s="9">
         <v>271000</v>
       </c>
-      <c r="D213" s="31" t="str">
+      <c r="D213" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E213" s="32" t="str">
+      <c r="E213" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F213" s="31" t="str">
+      <c r="F213" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6205,15 +6202,15 @@
       <c r="C214" s="9">
         <v>458000</v>
       </c>
-      <c r="D214" s="31" t="str">
+      <c r="D214" s="27" t="str">
         <f t="shared" si="9"/>
         <v>Trovato</v>
       </c>
-      <c r="E214" s="32" t="str">
+      <c r="E214" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F214" s="31" t="str">
+      <c r="F214" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6228,15 +6225,15 @@
       <c r="C215" s="9">
         <v>412000</v>
       </c>
-      <c r="D215" s="31" t="str">
+      <c r="D215" s="27" t="str">
         <f t="shared" si="9"/>
         <v>Trovato</v>
       </c>
-      <c r="E215" s="32" t="str">
+      <c r="E215" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F215" s="31" t="str">
+      <c r="F215" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6251,15 +6248,15 @@
       <c r="C216" s="9">
         <v>807000</v>
       </c>
-      <c r="D216" s="31" t="str">
+      <c r="D216" s="27" t="str">
         <f t="shared" si="9"/>
         <v>Trovato</v>
       </c>
-      <c r="E216" s="32" t="str">
+      <c r="E216" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F216" s="31" t="str">
+      <c r="F216" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6274,15 +6271,15 @@
       <c r="C217" s="9">
         <v>4000</v>
       </c>
-      <c r="D217" s="31" t="str">
+      <c r="D217" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E217" s="32" t="str">
+      <c r="E217" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F217" s="31" t="str">
+      <c r="F217" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6297,15 +6294,15 @@
       <c r="C218" s="9">
         <v>81000</v>
       </c>
-      <c r="D218" s="31" t="str">
+      <c r="D218" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E218" s="32" t="str">
+      <c r="E218" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F218" s="31" t="str">
+      <c r="F218" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6320,15 +6317,15 @@
       <c r="C219" s="9">
         <v>125000</v>
       </c>
-      <c r="D219" s="31" t="str">
+      <c r="D219" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E219" s="32" t="str">
+      <c r="E219" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F219" s="31" t="str">
+      <c r="F219" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6343,15 +6340,15 @@
       <c r="C220" s="9">
         <v>98000</v>
       </c>
-      <c r="D220" s="31" t="str">
+      <c r="D220" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E220" s="32" t="str">
+      <c r="E220" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F220" s="31" t="str">
+      <c r="F220" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6366,15 +6363,15 @@
       <c r="C221" s="9">
         <v>140000</v>
       </c>
-      <c r="D221" s="31" t="str">
+      <c r="D221" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E221" s="32" t="str">
+      <c r="E221" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F221" s="31" t="str">
+      <c r="F221" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6389,15 +6386,15 @@
       <c r="C222" s="9">
         <v>5000</v>
       </c>
-      <c r="D222" s="31" t="str">
+      <c r="D222" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E222" s="32" t="str">
+      <c r="E222" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F222" s="31" t="str">
+      <c r="F222" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6412,15 +6409,15 @@
       <c r="C223" s="9">
         <v>6000</v>
       </c>
-      <c r="D223" s="31" t="str">
+      <c r="D223" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E223" s="32" t="str">
+      <c r="E223" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F223" s="31" t="str">
+      <c r="F223" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6435,15 +6432,15 @@
       <c r="C224" s="9">
         <v>9000</v>
       </c>
-      <c r="D224" s="31" t="str">
+      <c r="D224" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E224" s="32" t="str">
+      <c r="E224" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F224" s="31" t="str">
+      <c r="F224" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6458,15 +6455,15 @@
       <c r="C225" s="9">
         <v>8000</v>
       </c>
-      <c r="D225" s="31" t="str">
+      <c r="D225" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E225" s="32" t="str">
+      <c r="E225" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F225" s="31" t="str">
+      <c r="F225" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6481,15 +6478,15 @@
       <c r="C226" s="9">
         <v>11000</v>
       </c>
-      <c r="D226" s="31" t="str">
+      <c r="D226" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E226" s="32" t="str">
+      <c r="E226" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F226" s="31" t="str">
+      <c r="F226" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6504,15 +6501,15 @@
       <c r="C227" s="9">
         <v>21000</v>
       </c>
-      <c r="D227" s="31" t="str">
+      <c r="D227" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E227" s="32" t="str">
+      <c r="E227" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F227" s="31" t="str">
+      <c r="F227" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6527,15 +6524,15 @@
       <c r="C228" s="9">
         <v>14000</v>
       </c>
-      <c r="D228" s="31" t="str">
+      <c r="D228" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E228" s="32" t="str">
+      <c r="E228" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F228" s="31" t="str">
+      <c r="F228" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6550,15 +6547,15 @@
       <c r="C229" s="9">
         <v>23000</v>
       </c>
-      <c r="D229" s="31" t="str">
+      <c r="D229" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E229" s="32" t="str">
+      <c r="E229" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F229" s="31" t="str">
+      <c r="F229" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6573,15 +6570,15 @@
       <c r="C230" s="9">
         <v>51000</v>
       </c>
-      <c r="D230" s="31" t="str">
+      <c r="D230" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E230" s="32" t="str">
+      <c r="E230" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F230" s="31" t="str">
+      <c r="F230" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6596,15 +6593,15 @@
       <c r="C231" s="10">
         <v>0</v>
       </c>
-      <c r="D231" s="31" t="str">
+      <c r="D231" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E231" s="32" t="str">
+      <c r="E231" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F231" s="31" t="str">
+      <c r="F231" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6619,15 +6616,15 @@
       <c r="C232" s="9">
         <v>198000</v>
       </c>
-      <c r="D232" s="31" t="str">
+      <c r="D232" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E232" s="32" t="str">
+      <c r="E232" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F232" s="31" t="str">
+      <c r="F232" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6642,15 +6639,15 @@
       <c r="C233" s="9">
         <v>167000</v>
       </c>
-      <c r="D233" s="31" t="str">
+      <c r="D233" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E233" s="32" t="str">
+      <c r="E233" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F233" s="31" t="str">
+      <c r="F233" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6665,15 +6662,15 @@
       <c r="C234" s="9">
         <v>95000</v>
       </c>
-      <c r="D234" s="31" t="str">
+      <c r="D234" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E234" s="32" t="str">
+      <c r="E234" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F234" s="31" t="str">
+      <c r="F234" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6688,15 +6685,15 @@
       <c r="C235" s="9">
         <v>141000</v>
       </c>
-      <c r="D235" s="31" t="str">
+      <c r="D235" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E235" s="32" t="str">
+      <c r="E235" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F235" s="31" t="str">
+      <c r="F235" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6711,15 +6708,15 @@
       <c r="C236" s="9">
         <v>351000</v>
       </c>
-      <c r="D236" s="31" t="str">
+      <c r="D236" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E236" s="32" t="str">
+      <c r="E236" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F236" s="31" t="str">
+      <c r="F236" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6734,15 +6731,15 @@
       <c r="C237" s="9">
         <v>414000</v>
       </c>
-      <c r="D237" s="31" t="str">
+      <c r="D237" s="27" t="str">
         <f t="shared" si="9"/>
         <v>Trovato</v>
       </c>
-      <c r="E237" s="32" t="str">
+      <c r="E237" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F237" s="31" t="str">
+      <c r="F237" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6757,15 +6754,15 @@
       <c r="C238" s="9">
         <v>61000</v>
       </c>
-      <c r="D238" s="31" t="str">
+      <c r="D238" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E238" s="32" t="str">
+      <c r="E238" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F238" s="31" t="str">
+      <c r="F238" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6780,15 +6777,15 @@
       <c r="C239" s="9">
         <v>893000</v>
       </c>
-      <c r="D239" s="31" t="str">
+      <c r="D239" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E239" s="32" t="str">
+      <c r="E239" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F239" s="31" t="str">
+      <c r="F239" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6803,15 +6800,15 @@
       <c r="C240" s="9">
         <v>985000</v>
       </c>
-      <c r="D240" s="31" t="str">
+      <c r="D240" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E240" s="32" t="str">
+      <c r="E240" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F240" s="31" t="str">
+      <c r="F240" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6826,15 +6823,15 @@
       <c r="C241" s="9">
         <v>296000</v>
       </c>
-      <c r="D241" s="31" t="str">
+      <c r="D241" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E241" s="32" t="str">
+      <c r="E241" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F241" s="31" t="str">
+      <c r="F241" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6849,15 +6846,15 @@
       <c r="C242" s="9">
         <v>685000</v>
       </c>
-      <c r="D242" s="31" t="str">
+      <c r="D242" s="27" t="str">
         <f t="shared" si="9"/>
         <v>Trovato</v>
       </c>
-      <c r="E242" s="32" t="str">
+      <c r="E242" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F242" s="31" t="str">
+      <c r="F242" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6872,15 +6869,15 @@
       <c r="C243" s="9">
         <v>1138000</v>
       </c>
-      <c r="D243" s="31" t="str">
+      <c r="D243" s="27" t="str">
         <f t="shared" si="9"/>
         <v>Trovato</v>
       </c>
-      <c r="E243" s="32" t="str">
+      <c r="E243" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F243" s="31" t="str">
+      <c r="F243" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6895,15 +6892,15 @@
       <c r="C244" s="9">
         <v>1334000</v>
       </c>
-      <c r="D244" s="31" t="str">
+      <c r="D244" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E244" s="32">
+      <c r="E244" s="28">
         <f t="shared" si="10"/>
         <v>293480</v>
       </c>
-      <c r="F244" s="31" t="str">
+      <c r="F244" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6918,15 +6915,15 @@
       <c r="C245" s="9">
         <v>30000</v>
       </c>
-      <c r="D245" s="31" t="str">
+      <c r="D245" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E245" s="32" t="str">
+      <c r="E245" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F245" s="31" t="str">
+      <c r="F245" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6941,15 +6938,15 @@
       <c r="C246" s="9">
         <v>30000</v>
       </c>
-      <c r="D246" s="31" t="str">
+      <c r="D246" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E246" s="32" t="str">
+      <c r="E246" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F246" s="31" t="str">
+      <c r="F246" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6964,15 +6961,15 @@
       <c r="C247" s="9">
         <v>406000</v>
       </c>
-      <c r="D247" s="31" t="str">
+      <c r="D247" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E247" s="32" t="str">
+      <c r="E247" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F247" s="31" t="str">
+      <c r="F247" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -6987,15 +6984,15 @@
       <c r="C248" s="9">
         <v>197000</v>
       </c>
-      <c r="D248" s="31" t="str">
+      <c r="D248" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E248" s="32" t="str">
+      <c r="E248" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F248" s="31" t="str">
+      <c r="F248" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7010,15 +7007,15 @@
       <c r="C249" s="9">
         <v>645000</v>
       </c>
-      <c r="D249" s="31" t="str">
+      <c r="D249" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E249" s="32">
+      <c r="E249" s="28">
         <f t="shared" si="10"/>
         <v>141900</v>
       </c>
-      <c r="F249" s="31" t="str">
+      <c r="F249" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7033,15 +7030,15 @@
       <c r="C250" s="9">
         <v>645000</v>
       </c>
-      <c r="D250" s="31" t="str">
+      <c r="D250" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E250" s="32" t="str">
+      <c r="E250" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F250" s="31" t="str">
+      <c r="F250" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7056,15 +7053,15 @@
       <c r="C251" s="9">
         <v>259000</v>
       </c>
-      <c r="D251" s="31" t="str">
+      <c r="D251" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E251" s="32" t="str">
+      <c r="E251" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F251" s="31" t="str">
+      <c r="F251" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7079,15 +7076,15 @@
       <c r="C252" s="9">
         <v>646000</v>
       </c>
-      <c r="D252" s="31" t="str">
+      <c r="D252" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E252" s="32" t="str">
+      <c r="E252" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F252" s="31" t="str">
+      <c r="F252" s="27" t="str">
         <f t="shared" si="11"/>
         <v>Vero</v>
       </c>
@@ -7102,15 +7099,15 @@
       <c r="C253" s="9">
         <v>259000</v>
       </c>
-      <c r="D253" s="31" t="str">
+      <c r="D253" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E253" s="32" t="str">
+      <c r="E253" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F253" s="31" t="str">
+      <c r="F253" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7125,15 +7122,15 @@
       <c r="C254" s="9">
         <v>645000</v>
       </c>
-      <c r="D254" s="31" t="str">
+      <c r="D254" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E254" s="32" t="str">
+      <c r="E254" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F254" s="31" t="str">
+      <c r="F254" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7148,15 +7145,15 @@
       <c r="C255" s="9">
         <v>879000</v>
       </c>
-      <c r="D255" s="31" t="str">
+      <c r="D255" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E255" s="32" t="str">
+      <c r="E255" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F255" s="31" t="str">
+      <c r="F255" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7171,15 +7168,15 @@
       <c r="C256" s="9">
         <v>259000</v>
       </c>
-      <c r="D256" s="31" t="str">
+      <c r="D256" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E256" s="32" t="str">
+      <c r="E256" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F256" s="31" t="str">
+      <c r="F256" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7194,15 +7191,15 @@
       <c r="C257" s="9">
         <v>274000</v>
       </c>
-      <c r="D257" s="31" t="str">
+      <c r="D257" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E257" s="32" t="str">
+      <c r="E257" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F257" s="31" t="str">
+      <c r="F257" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7217,15 +7214,15 @@
       <c r="C258" s="9">
         <v>975000</v>
       </c>
-      <c r="D258" s="31" t="str">
+      <c r="D258" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E258" s="32" t="str">
+      <c r="E258" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F258" s="31" t="str">
+      <c r="F258" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7240,15 +7237,15 @@
       <c r="C259" s="9">
         <v>480000</v>
       </c>
-      <c r="D259" s="31" t="str">
+      <c r="D259" s="27" t="str">
         <f t="shared" si="9"/>
         <v>Trovato</v>
       </c>
-      <c r="E259" s="32" t="str">
+      <c r="E259" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F259" s="31" t="str">
+      <c r="F259" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7263,15 +7260,15 @@
       <c r="C260" s="9">
         <v>1187000</v>
       </c>
-      <c r="D260" s="31" t="str">
+      <c r="D260" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E260" s="32" t="str">
+      <c r="E260" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F260" s="31" t="str">
+      <c r="F260" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7286,15 +7283,15 @@
       <c r="C261" s="9">
         <v>832000</v>
       </c>
-      <c r="D261" s="31" t="str">
+      <c r="D261" s="27" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E261" s="32" t="str">
+      <c r="E261" s="28" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F261" s="31" t="str">
+      <c r="F261" s="27" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7309,15 +7306,15 @@
       <c r="C262" s="9">
         <v>227000</v>
       </c>
-      <c r="D262" s="31" t="str">
+      <c r="D262" s="27" t="str">
         <f t="shared" ref="D262:D325" si="12">IF(AND(B262="Abbigliamento",C262&gt;300000),"Trovato"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E262" s="32" t="str">
-        <f t="shared" ref="E262:E325" si="13">IF(A262="HHB",C262*0.22," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F262" s="31" t="str">
+      <c r="E262" s="28" t="str">
+        <f t="shared" ref="E262:E325" si="13">IF(A262="HHB",C262*$E$1," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F262" s="27" t="str">
         <f t="shared" ref="F262:F325" si="14">IF(AND(B262="Manuali",C262&lt;1000000),"Vero"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -7332,15 +7329,15 @@
       <c r="C263" s="9">
         <v>98000</v>
       </c>
-      <c r="D263" s="31" t="str">
+      <c r="D263" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E263" s="32" t="str">
+      <c r="E263" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F263" s="31" t="str">
+      <c r="F263" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7355,15 +7352,15 @@
       <c r="C264" s="9">
         <v>1190000</v>
       </c>
-      <c r="D264" s="31" t="str">
+      <c r="D264" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E264" s="32" t="str">
+      <c r="E264" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F264" s="31" t="str">
+      <c r="F264" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7378,15 +7375,15 @@
       <c r="C265" s="9">
         <v>300000</v>
       </c>
-      <c r="D265" s="31" t="str">
+      <c r="D265" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E265" s="32" t="str">
+      <c r="E265" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F265" s="31" t="str">
+      <c r="F265" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7401,15 +7398,15 @@
       <c r="C266" s="9">
         <v>2407000</v>
       </c>
-      <c r="D266" s="31" t="str">
+      <c r="D266" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E266" s="32" t="str">
+      <c r="E266" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F266" s="31" t="str">
+      <c r="F266" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7424,15 +7421,15 @@
       <c r="C267" s="9">
         <v>1021000</v>
       </c>
-      <c r="D267" s="31" t="str">
+      <c r="D267" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E267" s="32" t="str">
+      <c r="E267" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F267" s="31" t="str">
+      <c r="F267" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7447,15 +7444,15 @@
       <c r="C268" s="9">
         <v>646000</v>
       </c>
-      <c r="D268" s="31" t="str">
+      <c r="D268" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E268" s="32" t="str">
+      <c r="E268" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F268" s="31" t="str">
+      <c r="F268" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7470,15 +7467,15 @@
       <c r="C269" s="9">
         <v>259000</v>
       </c>
-      <c r="D269" s="31" t="str">
+      <c r="D269" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E269" s="32" t="str">
+      <c r="E269" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F269" s="31" t="str">
+      <c r="F269" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7493,15 +7490,15 @@
       <c r="C270" s="9">
         <v>193000</v>
       </c>
-      <c r="D270" s="31" t="str">
+      <c r="D270" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E270" s="32" t="str">
+      <c r="E270" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F270" s="31" t="str">
+      <c r="F270" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7516,15 +7513,15 @@
       <c r="C271" s="9">
         <v>96000</v>
       </c>
-      <c r="D271" s="31" t="str">
+      <c r="D271" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E271" s="32" t="str">
+      <c r="E271" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F271" s="31" t="str">
+      <c r="F271" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7539,15 +7536,15 @@
       <c r="C272" s="9">
         <v>594000</v>
       </c>
-      <c r="D272" s="31" t="str">
+      <c r="D272" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E272" s="32" t="str">
+      <c r="E272" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F272" s="31" t="str">
+      <c r="F272" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7562,15 +7559,15 @@
       <c r="C273" s="9">
         <v>282000</v>
       </c>
-      <c r="D273" s="31" t="str">
+      <c r="D273" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E273" s="32" t="str">
+      <c r="E273" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F273" s="31" t="str">
+      <c r="F273" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7585,15 +7582,15 @@
       <c r="C274" s="9">
         <v>1814000</v>
       </c>
-      <c r="D274" s="31" t="str">
+      <c r="D274" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E274" s="32" t="str">
+      <c r="E274" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F274" s="31" t="str">
+      <c r="F274" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7608,15 +7605,15 @@
       <c r="C275" s="9">
         <v>193000</v>
       </c>
-      <c r="D275" s="31" t="str">
+      <c r="D275" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E275" s="32" t="str">
+      <c r="E275" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F275" s="31" t="str">
+      <c r="F275" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7631,15 +7628,15 @@
       <c r="C276" s="9">
         <v>654000</v>
       </c>
-      <c r="D276" s="31" t="str">
+      <c r="D276" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E276" s="32" t="str">
+      <c r="E276" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F276" s="31" t="str">
+      <c r="F276" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7654,15 +7651,15 @@
       <c r="C277" s="9">
         <v>729000</v>
       </c>
-      <c r="D277" s="31" t="str">
+      <c r="D277" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E277" s="32" t="str">
+      <c r="E277" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F277" s="31" t="str">
+      <c r="F277" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7677,15 +7674,15 @@
       <c r="C278" s="9">
         <v>632000</v>
       </c>
-      <c r="D278" s="31" t="str">
+      <c r="D278" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E278" s="32" t="str">
+      <c r="E278" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F278" s="31" t="str">
+      <c r="F278" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7700,15 +7697,15 @@
       <c r="C279" s="9">
         <v>240000</v>
       </c>
-      <c r="D279" s="31" t="str">
+      <c r="D279" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E279" s="32" t="str">
+      <c r="E279" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F279" s="31" t="str">
+      <c r="F279" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7723,15 +7720,15 @@
       <c r="C280" s="9">
         <v>955000</v>
       </c>
-      <c r="D280" s="31" t="str">
+      <c r="D280" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E280" s="32" t="str">
+      <c r="E280" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F280" s="31" t="str">
+      <c r="F280" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7746,15 +7743,15 @@
       <c r="C281" s="9">
         <v>1126000</v>
       </c>
-      <c r="D281" s="31" t="str">
+      <c r="D281" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E281" s="32" t="str">
+      <c r="E281" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F281" s="31" t="str">
+      <c r="F281" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7769,15 +7766,15 @@
       <c r="C282" s="10">
         <v>0</v>
       </c>
-      <c r="D282" s="31" t="str">
+      <c r="D282" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E282" s="32" t="str">
+      <c r="E282" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F282" s="31" t="str">
+      <c r="F282" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7792,15 +7789,15 @@
       <c r="C283" s="9">
         <v>297000</v>
       </c>
-      <c r="D283" s="31" t="str">
+      <c r="D283" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E283" s="32" t="str">
+      <c r="E283" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F283" s="31" t="str">
+      <c r="F283" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7815,15 +7812,15 @@
       <c r="C284" s="9">
         <v>646000</v>
       </c>
-      <c r="D284" s="31" t="str">
+      <c r="D284" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E284" s="32" t="str">
+      <c r="E284" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F284" s="31" t="str">
+      <c r="F284" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7838,15 +7835,15 @@
       <c r="C285" s="9">
         <v>714000</v>
       </c>
-      <c r="D285" s="31" t="str">
+      <c r="D285" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E285" s="32" t="str">
+      <c r="E285" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F285" s="31" t="str">
+      <c r="F285" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7861,15 +7858,15 @@
       <c r="C286" s="9">
         <v>807000</v>
       </c>
-      <c r="D286" s="31" t="str">
+      <c r="D286" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E286" s="32" t="str">
+      <c r="E286" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F286" s="31" t="str">
+      <c r="F286" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7884,15 +7881,15 @@
       <c r="C287" s="9">
         <v>591000</v>
       </c>
-      <c r="D287" s="31" t="str">
+      <c r="D287" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E287" s="32" t="str">
+      <c r="E287" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F287" s="31" t="str">
+      <c r="F287" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7907,15 +7904,15 @@
       <c r="C288" s="9">
         <v>918000</v>
       </c>
-      <c r="D288" s="31" t="str">
+      <c r="D288" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E288" s="32" t="str">
+      <c r="E288" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F288" s="31" t="str">
+      <c r="F288" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7930,15 +7927,15 @@
       <c r="C289" s="9">
         <v>1265000</v>
       </c>
-      <c r="D289" s="31" t="str">
+      <c r="D289" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E289" s="32" t="str">
+      <c r="E289" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F289" s="31" t="str">
+      <c r="F289" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7953,15 +7950,15 @@
       <c r="C290" s="9">
         <v>256000</v>
       </c>
-      <c r="D290" s="31" t="str">
+      <c r="D290" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E290" s="32" t="str">
+      <c r="E290" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F290" s="31" t="str">
+      <c r="F290" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7976,15 +7973,15 @@
       <c r="C291" s="9">
         <v>371000</v>
       </c>
-      <c r="D291" s="31" t="str">
+      <c r="D291" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E291" s="32" t="str">
+      <c r="E291" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F291" s="31" t="str">
+      <c r="F291" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -7999,15 +7996,15 @@
       <c r="C292" s="9">
         <v>457000</v>
       </c>
-      <c r="D292" s="31" t="str">
+      <c r="D292" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E292" s="32" t="str">
+      <c r="E292" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F292" s="31" t="str">
+      <c r="F292" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -8022,15 +8019,15 @@
       <c r="C293" s="9">
         <v>642000</v>
       </c>
-      <c r="D293" s="31" t="str">
+      <c r="D293" s="27" t="str">
         <f t="shared" si="12"/>
         <v>Trovato</v>
       </c>
-      <c r="E293" s="32" t="str">
+      <c r="E293" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F293" s="31" t="str">
+      <c r="F293" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -8045,15 +8042,15 @@
       <c r="C294" s="9">
         <v>1571000</v>
       </c>
-      <c r="D294" s="31" t="str">
+      <c r="D294" s="27" t="str">
         <f t="shared" si="12"/>
         <v>Trovato</v>
       </c>
-      <c r="E294" s="32" t="str">
+      <c r="E294" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F294" s="31" t="str">
+      <c r="F294" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -8068,15 +8065,15 @@
       <c r="C295" s="9">
         <v>756000</v>
       </c>
-      <c r="D295" s="31" t="str">
+      <c r="D295" s="27" t="str">
         <f t="shared" si="12"/>
         <v>Trovato</v>
       </c>
-      <c r="E295" s="32" t="str">
+      <c r="E295" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F295" s="31" t="str">
+      <c r="F295" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -8091,15 +8088,15 @@
       <c r="C296" s="9">
         <v>1571000</v>
       </c>
-      <c r="D296" s="31" t="str">
+      <c r="D296" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E296" s="32" t="str">
+      <c r="E296" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F296" s="31" t="str">
+      <c r="F296" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -8114,15 +8111,15 @@
       <c r="C297" s="9">
         <v>2716000</v>
       </c>
-      <c r="D297" s="31" t="str">
+      <c r="D297" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E297" s="32" t="str">
+      <c r="E297" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F297" s="31" t="str">
+      <c r="F297" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -8137,15 +8134,15 @@
       <c r="C298" s="9">
         <v>640000</v>
       </c>
-      <c r="D298" s="31" t="str">
+      <c r="D298" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E298" s="32" t="str">
+      <c r="E298" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F298" s="31" t="str">
+      <c r="F298" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -8160,15 +8157,15 @@
       <c r="C299" s="9">
         <v>255000</v>
       </c>
-      <c r="D299" s="31" t="str">
+      <c r="D299" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E299" s="32" t="str">
+      <c r="E299" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F299" s="31" t="str">
+      <c r="F299" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -8183,15 +8180,15 @@
       <c r="C300" s="9">
         <v>413000</v>
       </c>
-      <c r="D300" s="31" t="str">
+      <c r="D300" s="27" t="str">
         <f t="shared" si="12"/>
         <v>Trovato</v>
       </c>
-      <c r="E300" s="32" t="str">
+      <c r="E300" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F300" s="31" t="str">
+      <c r="F300" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -8206,15 +8203,15 @@
       <c r="C301" s="9">
         <v>361000</v>
       </c>
-      <c r="D301" s="31" t="str">
+      <c r="D301" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E301" s="32" t="str">
+      <c r="E301" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F301" s="31" t="str">
+      <c r="F301" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -8229,15 +8226,15 @@
       <c r="C302" s="9">
         <v>544000</v>
       </c>
-      <c r="D302" s="31" t="str">
+      <c r="D302" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E302" s="32" t="str">
+      <c r="E302" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F302" s="31" t="str">
+      <c r="F302" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -8252,15 +8249,15 @@
       <c r="C303" s="9">
         <v>678000</v>
       </c>
-      <c r="D303" s="31" t="str">
+      <c r="D303" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E303" s="32" t="str">
+      <c r="E303" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F303" s="31" t="str">
+      <c r="F303" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -8275,15 +8272,15 @@
       <c r="C304" s="9">
         <v>1054000</v>
       </c>
-      <c r="D304" s="31" t="str">
+      <c r="D304" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E304" s="32" t="str">
+      <c r="E304" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F304" s="31" t="str">
+      <c r="F304" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -8298,15 +8295,15 @@
       <c r="C305" s="9">
         <v>482000</v>
       </c>
-      <c r="D305" s="31" t="str">
+      <c r="D305" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E305" s="32" t="str">
+      <c r="E305" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F305" s="31" t="str">
+      <c r="F305" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -8321,15 +8318,15 @@
       <c r="C306" s="9">
         <v>722000</v>
       </c>
-      <c r="D306" s="31" t="str">
+      <c r="D306" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E306" s="32" t="str">
+      <c r="E306" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F306" s="31" t="str">
+      <c r="F306" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -8344,15 +8341,15 @@
       <c r="C307" s="9">
         <v>269000</v>
       </c>
-      <c r="D307" s="31" t="str">
+      <c r="D307" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E307" s="32" t="str">
+      <c r="E307" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F307" s="31" t="str">
+      <c r="F307" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -8367,15 +8364,15 @@
       <c r="C308" s="9">
         <v>371000</v>
       </c>
-      <c r="D308" s="31" t="str">
+      <c r="D308" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E308" s="32" t="str">
+      <c r="E308" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F308" s="31" t="str">
+      <c r="F308" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -8390,15 +8387,15 @@
       <c r="C309" s="9">
         <v>462000</v>
       </c>
-      <c r="D309" s="31" t="str">
+      <c r="D309" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E309" s="32" t="str">
+      <c r="E309" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F309" s="31" t="str">
+      <c r="F309" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -8413,15 +8410,15 @@
       <c r="C310" s="9">
         <v>541000</v>
       </c>
-      <c r="D310" s="31" t="str">
+      <c r="D310" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E310" s="32" t="str">
+      <c r="E310" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F310" s="31" t="str">
+      <c r="F310" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -8436,15 +8433,15 @@
       <c r="C311" s="9">
         <v>648000</v>
       </c>
-      <c r="D311" s="31" t="str">
+      <c r="D311" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E311" s="32" t="str">
+      <c r="E311" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F311" s="31" t="str">
+      <c r="F311" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -8459,15 +8456,15 @@
       <c r="C312" s="9">
         <v>644000</v>
       </c>
-      <c r="D312" s="31" t="str">
+      <c r="D312" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E312" s="32" t="str">
+      <c r="E312" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F312" s="31" t="str">
+      <c r="F312" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -8482,15 +8479,15 @@
       <c r="C313" s="9">
         <v>902000</v>
       </c>
-      <c r="D313" s="31" t="str">
+      <c r="D313" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E313" s="32" t="str">
+      <c r="E313" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F313" s="31" t="str">
+      <c r="F313" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -8505,15 +8502,15 @@
       <c r="C314" s="9">
         <v>722000</v>
       </c>
-      <c r="D314" s="31" t="str">
+      <c r="D314" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E314" s="32" t="str">
+      <c r="E314" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F314" s="31" t="str">
+      <c r="F314" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -8528,15 +8525,15 @@
       <c r="C315" s="9">
         <v>1457000</v>
       </c>
-      <c r="D315" s="31" t="str">
+      <c r="D315" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E315" s="32" t="str">
+      <c r="E315" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F315" s="31" t="str">
+      <c r="F315" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -8551,15 +8548,15 @@
       <c r="C316" s="9">
         <v>1786000</v>
       </c>
-      <c r="D316" s="31" t="str">
+      <c r="D316" s="27" t="str">
         <f t="shared" si="12"/>
         <v>Trovato</v>
       </c>
-      <c r="E316" s="32" t="str">
+      <c r="E316" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F316" s="31" t="str">
+      <c r="F316" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -8574,15 +8571,15 @@
       <c r="C317" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D317" s="31" t="str">
+      <c r="D317" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E317" s="32" t="str">
+      <c r="E317" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F317" s="31" t="str">
+      <c r="F317" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -8597,15 +8594,15 @@
       <c r="C318" s="9">
         <v>85000</v>
       </c>
-      <c r="D318" s="31" t="str">
+      <c r="D318" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E318" s="32" t="str">
+      <c r="E318" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F318" s="31" t="str">
+      <c r="F318" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -8620,15 +8617,15 @@
       <c r="C319" s="9">
         <v>84000</v>
       </c>
-      <c r="D319" s="31" t="str">
+      <c r="D319" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E319" s="32" t="str">
+      <c r="E319" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F319" s="31" t="str">
+      <c r="F319" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -8643,15 +8640,15 @@
       <c r="C320" s="9">
         <v>115000</v>
       </c>
-      <c r="D320" s="31" t="str">
+      <c r="D320" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E320" s="32" t="str">
+      <c r="E320" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F320" s="31" t="str">
+      <c r="F320" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -8666,15 +8663,15 @@
       <c r="C321" s="9">
         <v>152000</v>
       </c>
-      <c r="D321" s="31" t="str">
+      <c r="D321" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E321" s="32" t="str">
+      <c r="E321" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F321" s="31" t="str">
+      <c r="F321" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -8689,15 +8686,15 @@
       <c r="C322" s="9">
         <v>82000</v>
       </c>
-      <c r="D322" s="31" t="str">
+      <c r="D322" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E322" s="32" t="str">
+      <c r="E322" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F322" s="31" t="str">
+      <c r="F322" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -8712,15 +8709,15 @@
       <c r="C323" s="9">
         <v>84000</v>
       </c>
-      <c r="D323" s="31" t="str">
+      <c r="D323" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E323" s="32">
+      <c r="E323" s="28">
         <f t="shared" si="13"/>
         <v>18480</v>
       </c>
-      <c r="F323" s="31" t="str">
+      <c r="F323" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -8735,15 +8732,15 @@
       <c r="C324" s="9">
         <v>115000</v>
       </c>
-      <c r="D324" s="31" t="str">
+      <c r="D324" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E324" s="32" t="str">
+      <c r="E324" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F324" s="31" t="str">
+      <c r="F324" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -8758,15 +8755,15 @@
       <c r="C325" s="9">
         <v>153000</v>
       </c>
-      <c r="D325" s="31" t="str">
+      <c r="D325" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E325" s="32" t="str">
+      <c r="E325" s="28" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F325" s="31" t="str">
+      <c r="F325" s="27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -8781,15 +8778,15 @@
       <c r="C326" s="9">
         <v>80000</v>
       </c>
-      <c r="D326" s="31" t="str">
+      <c r="D326" s="27" t="str">
         <f t="shared" ref="D326:D340" si="15">IF(AND(B326="Abbigliamento",C326&gt;300000),"Trovato"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E326" s="32" t="str">
-        <f t="shared" ref="E326:E340" si="16">IF(A326="HHB",C326*0.22," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F326" s="31" t="str">
+      <c r="E326" s="28" t="str">
+        <f t="shared" ref="E326:E340" si="16">IF(A326="HHB",C326*$E$1," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F326" s="27" t="str">
         <f t="shared" ref="F326:F340" si="17">IF(AND(B326="Manuali",C326&lt;1000000),"Vero"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -8804,15 +8801,15 @@
       <c r="C327" s="9">
         <v>102000</v>
       </c>
-      <c r="D327" s="31" t="str">
+      <c r="D327" s="27" t="str">
         <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E327" s="32" t="str">
+      <c r="E327" s="28" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F327" s="31" t="str">
+      <c r="F327" s="27" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -8827,15 +8824,15 @@
       <c r="C328" s="10">
         <v>0</v>
       </c>
-      <c r="D328" s="31" t="str">
+      <c r="D328" s="27" t="str">
         <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E328" s="32">
+      <c r="E328" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F328" s="31" t="str">
+      <c r="F328" s="27" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -8850,15 +8847,15 @@
       <c r="C329" s="9">
         <v>198000</v>
       </c>
-      <c r="D329" s="31" t="str">
+      <c r="D329" s="27" t="str">
         <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E329" s="32" t="str">
+      <c r="E329" s="28" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F329" s="31" t="str">
+      <c r="F329" s="27" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -8873,15 +8870,15 @@
       <c r="C330" s="9">
         <v>233000</v>
       </c>
-      <c r="D330" s="31" t="str">
+      <c r="D330" s="27" t="str">
         <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E330" s="32" t="str">
+      <c r="E330" s="28" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F330" s="31" t="str">
+      <c r="F330" s="27" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -8896,15 +8893,15 @@
       <c r="C331" s="9">
         <v>279000</v>
       </c>
-      <c r="D331" s="31" t="str">
+      <c r="D331" s="27" t="str">
         <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E331" s="32" t="str">
+      <c r="E331" s="28" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F331" s="31" t="str">
+      <c r="F331" s="27" t="str">
         <f t="shared" si="17"/>
         <v>Vero</v>
       </c>
@@ -8919,15 +8916,15 @@
       <c r="C332" s="9">
         <v>298000</v>
       </c>
-      <c r="D332" s="31" t="str">
+      <c r="D332" s="27" t="str">
         <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E332" s="32" t="str">
+      <c r="E332" s="28" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F332" s="31" t="str">
+      <c r="F332" s="27" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -8942,15 +8939,15 @@
       <c r="C333" s="9">
         <v>478000</v>
       </c>
-      <c r="D333" s="31" t="str">
+      <c r="D333" s="27" t="str">
         <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E333" s="32" t="str">
+      <c r="E333" s="28" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F333" s="31" t="str">
+      <c r="F333" s="27" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -8965,15 +8962,15 @@
       <c r="C334" s="9">
         <v>626000</v>
       </c>
-      <c r="D334" s="31" t="str">
+      <c r="D334" s="27" t="str">
         <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E334" s="32" t="str">
+      <c r="E334" s="28" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F334" s="31" t="str">
+      <c r="F334" s="27" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -8988,15 +8985,15 @@
       <c r="C335" s="9">
         <v>757000</v>
       </c>
-      <c r="D335" s="31" t="str">
+      <c r="D335" s="27" t="str">
         <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E335" s="32" t="str">
+      <c r="E335" s="28" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F335" s="31" t="str">
+      <c r="F335" s="27" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -9011,15 +9008,15 @@
       <c r="C336" s="9">
         <v>1128000</v>
       </c>
-      <c r="D336" s="31" t="str">
+      <c r="D336" s="27" t="str">
         <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E336" s="32" t="str">
+      <c r="E336" s="28" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F336" s="31" t="str">
+      <c r="F336" s="27" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -9034,15 +9031,15 @@
       <c r="C337" s="9">
         <v>1527000</v>
       </c>
-      <c r="D337" s="31" t="str">
+      <c r="D337" s="27" t="str">
         <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E337" s="32" t="str">
+      <c r="E337" s="28" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F337" s="31" t="str">
+      <c r="F337" s="27" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -9057,15 +9054,15 @@
       <c r="C338" s="9">
         <v>4134000</v>
       </c>
-      <c r="D338" s="31" t="str">
+      <c r="D338" s="27" t="str">
         <f t="shared" si="15"/>
         <v>Trovato</v>
       </c>
-      <c r="E338" s="32" t="str">
+      <c r="E338" s="28" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F338" s="31" t="str">
+      <c r="F338" s="27" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -9080,15 +9077,15 @@
       <c r="C339" s="9">
         <v>6850000</v>
       </c>
-      <c r="D339" s="31" t="str">
+      <c r="D339" s="27" t="str">
         <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E339" s="32" t="str">
+      <c r="E339" s="28" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F339" s="31" t="str">
+      <c r="F339" s="27" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -9103,15 +9100,15 @@
       <c r="C340" s="9">
         <v>11712000</v>
       </c>
-      <c r="D340" s="31" t="str">
+      <c r="D340" s="27" t="str">
         <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E340" s="32" t="str">
+      <c r="E340" s="28" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F340" s="31" t="str">
+      <c r="F340" s="27" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -9133,7 +9130,7 @@
   <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9184,6 +9181,7 @@
       <c r="E2" s="3">
         <v>16</v>
       </c>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
@@ -9204,7 +9202,10 @@
       <c r="G3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="22"/>
+      <c r="H3" s="22">
+        <f>SUMIF(C:C,G3,D:D)</f>
+        <v>611780</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
@@ -9225,7 +9226,10 @@
       <c r="G4" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="22"/>
+      <c r="H4" s="22">
+        <f t="shared" ref="H4:H6" si="0">SUMIF(C:C,G4,D:D)</f>
+        <v>30860</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
@@ -9246,7 +9250,10 @@
       <c r="G5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="22"/>
+      <c r="H5" s="22">
+        <f t="shared" si="0"/>
+        <v>54000</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
@@ -9267,7 +9274,10 @@
       <c r="G6" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="22"/>
+      <c r="H6" s="22">
+        <f t="shared" si="0"/>
+        <v>6765600</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -9307,7 +9317,10 @@
       <c r="G8" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="22"/>
+      <c r="H8" s="22">
+        <f>SUMIF(B:B,G8,D:D)</f>
+        <v>73450</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
@@ -9328,7 +9341,10 @@
       <c r="G9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="22"/>
+      <c r="H9" s="22">
+        <f t="shared" ref="H9:H14" si="1">SUMIF(B:B,G9,D:D)</f>
+        <v>50800</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
@@ -9349,7 +9365,10 @@
       <c r="G10" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="22"/>
+      <c r="H10" s="22">
+        <f t="shared" si="1"/>
+        <v>98450</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
@@ -9370,7 +9389,10 @@
       <c r="G11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="22"/>
+      <c r="H11" s="22">
+        <f t="shared" si="1"/>
+        <v>7950</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
@@ -9391,7 +9413,10 @@
       <c r="G12" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="22"/>
+      <c r="H12" s="22">
+        <f t="shared" si="1"/>
+        <v>283000</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
@@ -9412,7 +9437,10 @@
       <c r="G13" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="22"/>
+      <c r="H13" s="22">
+        <f t="shared" si="1"/>
+        <v>107700</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
@@ -9433,7 +9461,10 @@
       <c r="G14" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="22"/>
+      <c r="H14" s="22">
+        <f t="shared" si="1"/>
+        <v>27270</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -10558,6 +10589,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E80" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E456">
     <sortCondition ref="A1"/>
   </sortState>
@@ -10577,13 +10609,13 @@
   <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
     <col min="3" max="3" width="2.44140625" customWidth="1"/>
     <col min="4" max="4" width="77" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.88671875" customWidth="1"/>
@@ -10610,8 +10642,14 @@
       <c r="B2" s="24">
         <v>125</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="D2" s="23">
+        <f>SUMIF(A:A,"Ossenigo",B:B)</f>
+        <v>130</v>
+      </c>
+      <c r="E2" s="23">
+        <f>SUMIF(A:A,"avio",B:B)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -10621,7 +10659,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>109</v>
       </c>
@@ -10639,7 +10677,10 @@
       <c r="B5" s="24">
         <v>5</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="23">
+        <f>COUNTIF(B:B,"&gt;100")</f>
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
@@ -10648,26 +10689,30 @@
       <c r="B6" s="24">
         <v>3</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="35" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>84</v>
       </c>
       <c r="B7" s="24">
         <v>75</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="36">
+        <f>COUNTIF(comuni,"C*")</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>99</v>
       </c>
       <c r="B8" s="24">
         <v>35</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="35" t="s">
         <v>199</v>
       </c>
     </row>
@@ -10678,6 +10723,10 @@
       <c r="B9" s="24">
         <v>5</v>
       </c>
+      <c r="D9" s="23">
+        <f>COUNTIFS(B:B,"&gt;=10",B:B,"&lt;=100")</f>
+        <v>53</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
@@ -10686,16 +10735,20 @@
       <c r="B10" s="24">
         <v>48</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="35" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
         <v>87</v>
       </c>
       <c r="B11" s="24">
         <v>29</v>
+      </c>
+      <c r="D11" s="37">
+        <f>SUM(B:B)</f>
+        <v>12564</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -11491,6 +11544,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B110" xr:uid="{5CBD8C3F-135D-4280-BD95-8C23E6C981DD}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>